--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mexjj\Desktop\订单报表开发\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BEB42-8D84-4737-A65B-C5646689D571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A566FFD1-FBBE-49DA-86E0-E9ACA10F78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1718">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -4492,9 +4492,6 @@
     <t>HW03-SJ-P50 Pro-12512-YJH</t>
   </si>
   <si>
-    <t>HUAWEI P50 Pro 4G JAD-AL50(12G+512G) 曜金黑</t>
-  </si>
-  <si>
     <t>HW01-NB-D 15-BoD-WFH9-SKH01</t>
   </si>
   <si>
@@ -4750,9 +4747,6 @@
     <t>Hi Nova9 Pro 5G Hebe-BD00(8GB+128GB)全网通版亮黑色</t>
   </si>
   <si>
-    <t>HW03-SJ-HZJ-Hi NOVA9 P-8256-MHXH</t>
-  </si>
-  <si>
     <t>Hi Nova9 Pro 5G Hebe-BD00(8GB+128GB)全网通版梦幻星河</t>
   </si>
   <si>
@@ -4933,15 +4927,9 @@
     <t>HW01-NB-D 15-BoDE-WFE9-HYY</t>
   </si>
   <si>
-    <t>ris XeHUAWEI MateBook D 15 BoDE-WFE9(Intel Iris Xe Intel i7-1195G7 16GB+512GB)皓月银</t>
-  </si>
-  <si>
     <t>HW06-YP-ZNYJ-FIJ-CG010-01 YJ</t>
   </si>
   <si>
-    <t>UAWEI Eyewear EVI-CG010 方形半框光学镜演示样机亮黑</t>
-  </si>
-  <si>
     <t>HW06-YP-ZNYJ-FIJ-CG010-02 YJ</t>
   </si>
   <si>
@@ -5056,9 +5044,6 @@
     <t>HW01-NB-X PRO-MRG-W76-SKH01</t>
   </si>
   <si>
-    <t>HUAWEI MateBook X Pro MRG-W76(Intel Iris Xe Intel i7 16GB+1TB)深空灰</t>
-  </si>
-  <si>
     <t>HW01-NB-X PRO-MRG-W76-FLC</t>
   </si>
   <si>
@@ -5165,6 +5150,44 @@
   </si>
   <si>
     <t>张</t>
+  </si>
+  <si>
+    <t>HW01-NB-X-EULD-WFH9-QSD</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X EULD-WFH9(Intel iris Xe Intel I5-1135G7 16GB+512GB )触屏青山黛</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL50(12G+512G) 麒麟9000曜金黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA8 SE-8128-SHL YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 8 SE 4G JSC-AL50(8GB+128GB)深海蓝演示样机</t>
+  </si>
+  <si>
+    <t>HW03-SJ-HZJ-Hi NOVA9 P-8128-MHXH</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook D 15 BoDE-WFE9(Intel Iris Xe Intel i7-1195G7 16GB+512GB)皓月银</t>
+  </si>
+  <si>
+    <t>HUAWEI Eyewear EVI-CG010 方形半框光学镜演示样机亮黑</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W76(Intel Iris Xe Intel  i7-1195G7 16GB+1TB)触屏深空灰</t>
+  </si>
+  <si>
+    <t>D3250-10-SIU 1T 500万红外AI半球型摄像机(设备+安装调试费)无色</t>
+  </si>
+  <si>
+    <t>ZC-CD-88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3250-10-SIU500万红外AI半球型摄像机(设备安装调试费)（国贸资产）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5489,17 +5512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D733"/>
+  <dimension ref="A1:D734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
-      <selection activeCell="C718" sqref="C718"/>
+    <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0">
+      <selection activeCell="D731" sqref="D731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.6640625" customWidth="1"/>
     <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5514,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,7 +5551,7 @@
         <v>685</v>
       </c>
       <c r="D2" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,7 +5565,7 @@
         <v>687</v>
       </c>
       <c r="D3" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,7 +5607,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5598,7 +5621,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,7 +5635,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,7 +5649,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,7 +5663,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5668,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5696,7 +5719,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5710,7 +5733,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,7 +5747,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,7 +5775,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,7 +5789,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5780,7 +5803,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,7 +5817,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,7 +5831,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5822,7 +5845,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5836,7 +5859,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,7 +5873,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,7 +5887,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5878,7 +5901,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,7 +5915,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5906,7 +5929,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,7 +5943,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,7 +5957,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,7 +5971,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,7 +5985,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,7 +5999,7 @@
         <v>719</v>
       </c>
       <c r="D34" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,7 +6013,7 @@
         <v>721</v>
       </c>
       <c r="D35" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,7 +6027,7 @@
         <v>723</v>
       </c>
       <c r="D36" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6018,7 +6041,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,7 +6055,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,7 +6069,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,7 +6097,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,7 +6111,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,7 +6125,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6116,7 +6139,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,7 +6153,7 @@
         <v>733</v>
       </c>
       <c r="D45" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,7 +6167,7 @@
         <v>735</v>
       </c>
       <c r="D46" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,7 +6181,7 @@
         <v>737</v>
       </c>
       <c r="D47" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6172,7 +6195,7 @@
         <v>739</v>
       </c>
       <c r="D48" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,7 +6209,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,7 +6223,7 @@
         <v>742</v>
       </c>
       <c r="D50" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,7 +6237,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,7 +6251,7 @@
         <v>745</v>
       </c>
       <c r="D52" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6242,7 +6265,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,7 +6279,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,7 +6293,7 @@
         <v>749</v>
       </c>
       <c r="D55" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6284,7 +6307,7 @@
         <v>751</v>
       </c>
       <c r="D56" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,7 +6321,7 @@
         <v>753</v>
       </c>
       <c r="D57" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,7 +6335,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,7 +6349,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,7 +6363,7 @@
         <v>757</v>
       </c>
       <c r="D60" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,7 +6377,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,7 +6391,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,7 +6405,7 @@
         <v>761</v>
       </c>
       <c r="D63" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,7 +6419,7 @@
         <v>763</v>
       </c>
       <c r="D64" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,7 +6433,7 @@
         <v>765</v>
       </c>
       <c r="D65" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6424,7 +6447,7 @@
         <v>767</v>
       </c>
       <c r="D66" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,7 +6461,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,7 +6475,7 @@
         <v>770</v>
       </c>
       <c r="D68" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,7 +6489,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6480,7 +6503,7 @@
         <v>773</v>
       </c>
       <c r="D70" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6494,7 +6517,7 @@
         <v>775</v>
       </c>
       <c r="D71" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,7 +6531,7 @@
         <v>777</v>
       </c>
       <c r="D72" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,7 +6545,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,7 +6559,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6550,7 +6573,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,7 +6587,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6578,7 +6601,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,7 +6615,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,7 +6629,7 @@
         <v>785</v>
       </c>
       <c r="D79" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,7 +6643,7 @@
         <v>787</v>
       </c>
       <c r="D80" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6634,7 +6657,7 @@
         <v>789</v>
       </c>
       <c r="D81" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6648,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="D82" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6662,7 +6685,7 @@
         <v>793</v>
       </c>
       <c r="D83" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,7 +6699,7 @@
         <v>795</v>
       </c>
       <c r="D84" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,7 +6713,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,7 +6727,7 @@
         <v>798</v>
       </c>
       <c r="D86" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,7 +6741,7 @@
         <v>800</v>
       </c>
       <c r="D87" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6732,7 +6755,7 @@
         <v>802</v>
       </c>
       <c r="D88" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,7 +6769,7 @@
         <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,7 +6783,7 @@
         <v>806</v>
       </c>
       <c r="D90" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,7 +6797,7 @@
         <v>808</v>
       </c>
       <c r="D91" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,7 +6811,7 @@
         <v>810</v>
       </c>
       <c r="D92" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,7 +6825,7 @@
         <v>812</v>
       </c>
       <c r="D93" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,7 +6839,7 @@
         <v>814</v>
       </c>
       <c r="D94" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,7 +6853,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,7 +6867,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,7 +6881,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,7 +6895,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -6886,7 +6909,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,7 +6923,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,7 +6937,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,7 +6951,7 @@
         <v>101</v>
       </c>
       <c r="D102" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -6942,7 +6965,7 @@
         <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,7 +6979,7 @@
         <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,7 +6993,7 @@
         <v>826</v>
       </c>
       <c r="D105" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,7 +7007,7 @@
         <v>828</v>
       </c>
       <c r="D106" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,7 +7021,7 @@
         <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,7 +7035,7 @@
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,7 +7049,7 @@
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,7 +7063,7 @@
         <v>833</v>
       </c>
       <c r="D110" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,7 +7077,7 @@
         <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,7 +7091,7 @@
         <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,7 +7105,7 @@
         <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -7096,7 +7119,7 @@
         <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,7 +7133,7 @@
         <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,7 +7147,7 @@
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,7 +7161,7 @@
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,7 +7175,7 @@
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,7 +7189,7 @@
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,7 +7203,7 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,7 +7217,7 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7208,7 +7231,7 @@
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,7 +7245,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,7 +7259,7 @@
         <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -7250,7 +7273,7 @@
         <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -7264,7 +7287,7 @@
         <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -7278,7 +7301,7 @@
         <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,7 +7315,7 @@
         <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,7 +7329,7 @@
         <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -7320,7 +7343,7 @@
         <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -7334,7 +7357,7 @@
         <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -7348,7 +7371,7 @@
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,7 +7385,7 @@
         <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -7376,7 +7399,7 @@
         <v>858</v>
       </c>
       <c r="D134" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,7 +7413,7 @@
         <v>860</v>
       </c>
       <c r="D135" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,7 +7427,7 @@
         <v>862</v>
       </c>
       <c r="D136" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,7 +7441,7 @@
         <v>864</v>
       </c>
       <c r="D137" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,7 +7455,7 @@
         <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -7446,7 +7469,7 @@
         <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,7 +7483,7 @@
         <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,7 +7497,7 @@
         <v>869</v>
       </c>
       <c r="D141" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,7 +7511,7 @@
         <v>871</v>
       </c>
       <c r="D142" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -7502,7 +7525,7 @@
         <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -7516,7 +7539,7 @@
         <v>142</v>
       </c>
       <c r="D144" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -7530,7 +7553,7 @@
         <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,7 +7567,7 @@
         <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -7558,7 +7581,7 @@
         <v>145</v>
       </c>
       <c r="D147" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,7 +7595,7 @@
         <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -7586,7 +7609,7 @@
         <v>879</v>
       </c>
       <c r="D149" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,7 +7623,7 @@
         <v>881</v>
       </c>
       <c r="D150" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,7 +7637,7 @@
         <v>883</v>
       </c>
       <c r="D151" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -7628,7 +7651,7 @@
         <v>885</v>
       </c>
       <c r="D152" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,7 +7665,7 @@
         <v>887</v>
       </c>
       <c r="D153" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -7656,7 +7679,7 @@
         <v>889</v>
       </c>
       <c r="D154" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -7670,7 +7693,7 @@
         <v>153</v>
       </c>
       <c r="D155" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -7684,7 +7707,7 @@
         <v>154</v>
       </c>
       <c r="D156" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -7698,7 +7721,7 @@
         <v>893</v>
       </c>
       <c r="D157" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -7712,7 +7735,7 @@
         <v>895</v>
       </c>
       <c r="D158" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -7726,7 +7749,7 @@
         <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,7 +7763,7 @@
         <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -7754,7 +7777,7 @@
         <v>899</v>
       </c>
       <c r="D161" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -7768,7 +7791,7 @@
         <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -7782,7 +7805,7 @@
         <v>161</v>
       </c>
       <c r="D163" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -7796,7 +7819,7 @@
         <v>162</v>
       </c>
       <c r="D164" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -7810,7 +7833,7 @@
         <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,7 +7847,7 @@
         <v>164</v>
       </c>
       <c r="D166" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -7838,7 +7861,7 @@
         <v>165</v>
       </c>
       <c r="D167" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -7852,7 +7875,7 @@
         <v>166</v>
       </c>
       <c r="D168" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -7866,7 +7889,7 @@
         <v>908</v>
       </c>
       <c r="D169" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -7880,7 +7903,7 @@
         <v>910</v>
       </c>
       <c r="D170" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -7894,7 +7917,7 @@
         <v>912</v>
       </c>
       <c r="D171" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -7908,7 +7931,7 @@
         <v>170</v>
       </c>
       <c r="D172" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,7 +7945,7 @@
         <v>171</v>
       </c>
       <c r="D173" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -7936,7 +7959,7 @@
         <v>172</v>
       </c>
       <c r="D174" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -7950,7 +7973,7 @@
         <v>173</v>
       </c>
       <c r="D175" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -7964,7 +7987,7 @@
         <v>174</v>
       </c>
       <c r="D176" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -7978,7 +8001,7 @@
         <v>175</v>
       </c>
       <c r="D177" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -7992,7 +8015,7 @@
         <v>176</v>
       </c>
       <c r="D178" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,7 +8029,7 @@
         <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -8020,7 +8043,7 @@
         <v>178</v>
       </c>
       <c r="D180" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -8034,7 +8057,7 @@
         <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,7 +8071,7 @@
         <v>924</v>
       </c>
       <c r="D182" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -8062,7 +8085,7 @@
         <v>181</v>
       </c>
       <c r="D183" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,7 +8099,7 @@
         <v>182</v>
       </c>
       <c r="D184" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -8090,7 +8113,7 @@
         <v>183</v>
       </c>
       <c r="D185" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -8104,7 +8127,7 @@
         <v>184</v>
       </c>
       <c r="D186" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -8118,7 +8141,7 @@
         <v>185</v>
       </c>
       <c r="D187" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,7 +8155,7 @@
         <v>186</v>
       </c>
       <c r="D188" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,7 +8169,7 @@
         <v>187</v>
       </c>
       <c r="D189" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,7 +8183,7 @@
         <v>188</v>
       </c>
       <c r="D190" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -8174,7 +8197,7 @@
         <v>934</v>
       </c>
       <c r="D191" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -8188,7 +8211,7 @@
         <v>190</v>
       </c>
       <c r="D192" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,7 +8225,7 @@
         <v>191</v>
       </c>
       <c r="D193" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,7 +8239,7 @@
         <v>192</v>
       </c>
       <c r="D194" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,7 +8253,7 @@
         <v>193</v>
       </c>
       <c r="D195" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,7 +8267,7 @@
         <v>194</v>
       </c>
       <c r="D196" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -8258,7 +8281,7 @@
         <v>195</v>
       </c>
       <c r="D197" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -8272,7 +8295,7 @@
         <v>196</v>
       </c>
       <c r="D198" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -8286,7 +8309,7 @@
         <v>197</v>
       </c>
       <c r="D199" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -8300,7 +8323,7 @@
         <v>198</v>
       </c>
       <c r="D200" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -8314,7 +8337,7 @@
         <v>945</v>
       </c>
       <c r="D201" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -8328,7 +8351,7 @@
         <v>947</v>
       </c>
       <c r="D202" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -8342,7 +8365,7 @@
         <v>201</v>
       </c>
       <c r="D203" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -8356,7 +8379,7 @@
         <v>950</v>
       </c>
       <c r="D204" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,7 +8393,7 @@
         <v>203</v>
       </c>
       <c r="D205" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -8384,7 +8407,7 @@
         <v>204</v>
       </c>
       <c r="D206" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -8398,7 +8421,7 @@
         <v>205</v>
       </c>
       <c r="D207" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -8412,7 +8435,7 @@
         <v>206</v>
       </c>
       <c r="D208" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -8426,7 +8449,7 @@
         <v>207</v>
       </c>
       <c r="D209" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -8440,7 +8463,7 @@
         <v>208</v>
       </c>
       <c r="D210" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -8454,7 +8477,7 @@
         <v>209</v>
       </c>
       <c r="D211" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,7 +8491,7 @@
         <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -8482,7 +8505,7 @@
         <v>211</v>
       </c>
       <c r="D213" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -8496,7 +8519,7 @@
         <v>212</v>
       </c>
       <c r="D214" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -8510,7 +8533,7 @@
         <v>213</v>
       </c>
       <c r="D215" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -8524,7 +8547,7 @@
         <v>963</v>
       </c>
       <c r="D216" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,7 +8561,7 @@
         <v>215</v>
       </c>
       <c r="D217" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -8552,7 +8575,7 @@
         <v>216</v>
       </c>
       <c r="D218" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -8566,7 +8589,7 @@
         <v>217</v>
       </c>
       <c r="D219" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -8580,7 +8603,7 @@
         <v>218</v>
       </c>
       <c r="D220" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -8594,7 +8617,7 @@
         <v>219</v>
       </c>
       <c r="D221" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -8608,7 +8631,7 @@
         <v>220</v>
       </c>
       <c r="D222" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -8622,7 +8645,7 @@
         <v>221</v>
       </c>
       <c r="D223" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -8636,7 +8659,7 @@
         <v>222</v>
       </c>
       <c r="D224" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,7 +8673,7 @@
         <v>223</v>
       </c>
       <c r="D225" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -8664,7 +8687,7 @@
         <v>974</v>
       </c>
       <c r="D226" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -8678,7 +8701,7 @@
         <v>976</v>
       </c>
       <c r="D227" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -8692,7 +8715,7 @@
         <v>978</v>
       </c>
       <c r="D228" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -8706,7 +8729,7 @@
         <v>980</v>
       </c>
       <c r="D229" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -8720,7 +8743,7 @@
         <v>228</v>
       </c>
       <c r="D230" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -8734,7 +8757,7 @@
         <v>229</v>
       </c>
       <c r="D231" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -8748,7 +8771,7 @@
         <v>230</v>
       </c>
       <c r="D232" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -8762,7 +8785,7 @@
         <v>231</v>
       </c>
       <c r="D233" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -8776,7 +8799,7 @@
         <v>232</v>
       </c>
       <c r="D234" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -8790,7 +8813,7 @@
         <v>233</v>
       </c>
       <c r="D235" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -8804,7 +8827,7 @@
         <v>234</v>
       </c>
       <c r="D236" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -8818,7 +8841,7 @@
         <v>235</v>
       </c>
       <c r="D237" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -8832,7 +8855,7 @@
         <v>236</v>
       </c>
       <c r="D238" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -8846,7 +8869,7 @@
         <v>237</v>
       </c>
       <c r="D239" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -8860,7 +8883,7 @@
         <v>238</v>
       </c>
       <c r="D240" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -8874,7 +8897,7 @@
         <v>239</v>
       </c>
       <c r="D241" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -8888,7 +8911,7 @@
         <v>240</v>
       </c>
       <c r="D242" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -8902,7 +8925,7 @@
         <v>241</v>
       </c>
       <c r="D243" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -8916,7 +8939,7 @@
         <v>242</v>
       </c>
       <c r="D244" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -8930,7 +8953,7 @@
         <v>243</v>
       </c>
       <c r="D245" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -8944,7 +8967,7 @@
         <v>244</v>
       </c>
       <c r="D246" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -8958,7 +8981,7 @@
         <v>999</v>
       </c>
       <c r="D247" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -8972,7 +8995,7 @@
         <v>1001</v>
       </c>
       <c r="D248" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -8986,7 +9009,7 @@
         <v>1003</v>
       </c>
       <c r="D249" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -9000,7 +9023,7 @@
         <v>1005</v>
       </c>
       <c r="D250" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -9014,7 +9037,7 @@
         <v>1007</v>
       </c>
       <c r="D251" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -9028,7 +9051,7 @@
         <v>250</v>
       </c>
       <c r="D252" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -9042,7 +9065,7 @@
         <v>251</v>
       </c>
       <c r="D253" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -9056,7 +9079,7 @@
         <v>252</v>
       </c>
       <c r="D254" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -9070,7 +9093,7 @@
         <v>253</v>
       </c>
       <c r="D255" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -9084,7 +9107,7 @@
         <v>254</v>
       </c>
       <c r="D256" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -9098,7 +9121,7 @@
         <v>255</v>
       </c>
       <c r="D257" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -9112,7 +9135,7 @@
         <v>1015</v>
       </c>
       <c r="D258" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -9126,7 +9149,7 @@
         <v>1017</v>
       </c>
       <c r="D259" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -9140,7 +9163,7 @@
         <v>1019</v>
       </c>
       <c r="D260" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -9154,7 +9177,7 @@
         <v>259</v>
       </c>
       <c r="D261" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -9168,7 +9191,7 @@
         <v>1022</v>
       </c>
       <c r="D262" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -9182,7 +9205,7 @@
         <v>261</v>
       </c>
       <c r="D263" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -9196,7 +9219,7 @@
         <v>1025</v>
       </c>
       <c r="D264" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -9210,7 +9233,7 @@
         <v>1027</v>
       </c>
       <c r="D265" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -9224,7 +9247,7 @@
         <v>1029</v>
       </c>
       <c r="D266" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -9238,7 +9261,7 @@
         <v>265</v>
       </c>
       <c r="D267" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -9252,7 +9275,7 @@
         <v>1032</v>
       </c>
       <c r="D268" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -9266,7 +9289,7 @@
         <v>267</v>
       </c>
       <c r="D269" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -9280,7 +9303,7 @@
         <v>268</v>
       </c>
       <c r="D270" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -9294,7 +9317,7 @@
         <v>269</v>
       </c>
       <c r="D271" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -9308,7 +9331,7 @@
         <v>270</v>
       </c>
       <c r="D272" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -9322,7 +9345,7 @@
         <v>271</v>
       </c>
       <c r="D273" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -9336,7 +9359,7 @@
         <v>1039</v>
       </c>
       <c r="D274" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -9350,7 +9373,7 @@
         <v>1041</v>
       </c>
       <c r="D275" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -9364,7 +9387,7 @@
         <v>274</v>
       </c>
       <c r="D276" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -9378,7 +9401,7 @@
         <v>275</v>
       </c>
       <c r="D277" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -9392,7 +9415,7 @@
         <v>276</v>
       </c>
       <c r="D278" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -9406,7 +9429,7 @@
         <v>277</v>
       </c>
       <c r="D279" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -9420,7 +9443,7 @@
         <v>278</v>
       </c>
       <c r="D280" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -9434,7 +9457,7 @@
         <v>279</v>
       </c>
       <c r="D281" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -9448,7 +9471,7 @@
         <v>1049</v>
       </c>
       <c r="D282" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -9462,7 +9485,7 @@
         <v>281</v>
       </c>
       <c r="D283" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -9476,7 +9499,7 @@
         <v>282</v>
       </c>
       <c r="D284" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -9490,7 +9513,7 @@
         <v>283</v>
       </c>
       <c r="D285" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -9504,7 +9527,7 @@
         <v>284</v>
       </c>
       <c r="D286" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -9518,7 +9541,7 @@
         <v>285</v>
       </c>
       <c r="D287" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -9532,7 +9555,7 @@
         <v>1056</v>
       </c>
       <c r="D288" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -9546,7 +9569,7 @@
         <v>287</v>
       </c>
       <c r="D289" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -9560,7 +9583,7 @@
         <v>288</v>
       </c>
       <c r="D290" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -9574,7 +9597,7 @@
         <v>1060</v>
       </c>
       <c r="D291" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -9588,7 +9611,7 @@
         <v>290</v>
       </c>
       <c r="D292" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -9602,7 +9625,7 @@
         <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -9616,7 +9639,7 @@
         <v>292</v>
       </c>
       <c r="D294" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -9630,7 +9653,7 @@
         <v>293</v>
       </c>
       <c r="D295" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -9644,7 +9667,7 @@
         <v>21</v>
       </c>
       <c r="D296" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -9658,7 +9681,7 @@
         <v>20</v>
       </c>
       <c r="D297" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -9672,7 +9695,7 @@
         <v>17</v>
       </c>
       <c r="D298" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -9686,7 +9709,7 @@
         <v>297</v>
       </c>
       <c r="D299" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -9700,7 +9723,7 @@
         <v>298</v>
       </c>
       <c r="D300" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -9714,7 +9737,7 @@
         <v>18</v>
       </c>
       <c r="D301" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -9728,7 +9751,7 @@
         <v>1067</v>
       </c>
       <c r="D302" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -9742,7 +9765,7 @@
         <v>301</v>
       </c>
       <c r="D303" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -9756,7 +9779,7 @@
         <v>1070</v>
       </c>
       <c r="D304" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -9770,7 +9793,7 @@
         <v>1072</v>
       </c>
       <c r="D305" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -9784,7 +9807,7 @@
         <v>1074</v>
       </c>
       <c r="D306" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -9798,7 +9821,7 @@
         <v>1076</v>
       </c>
       <c r="D307" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -9812,7 +9835,7 @@
         <v>1078</v>
       </c>
       <c r="D308" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -9826,7 +9849,7 @@
         <v>1080</v>
       </c>
       <c r="D309" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -9840,7 +9863,7 @@
         <v>308</v>
       </c>
       <c r="D310" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -9854,7 +9877,7 @@
         <v>309</v>
       </c>
       <c r="D311" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -9868,7 +9891,7 @@
         <v>1084</v>
       </c>
       <c r="D312" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -9882,7 +9905,7 @@
         <v>1086</v>
       </c>
       <c r="D313" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -9896,7 +9919,7 @@
         <v>1088</v>
       </c>
       <c r="D314" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -9910,7 +9933,7 @@
         <v>1090</v>
       </c>
       <c r="D315" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -9924,7 +9947,7 @@
         <v>314</v>
       </c>
       <c r="D316" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -9938,7 +9961,7 @@
         <v>315</v>
       </c>
       <c r="D317" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -9952,7 +9975,7 @@
         <v>1094</v>
       </c>
       <c r="D318" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -9966,7 +9989,7 @@
         <v>317</v>
       </c>
       <c r="D319" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -9980,7 +10003,7 @@
         <v>1097</v>
       </c>
       <c r="D320" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -9994,7 +10017,7 @@
         <v>319</v>
       </c>
       <c r="D321" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -10008,7 +10031,7 @@
         <v>320</v>
       </c>
       <c r="D322" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -10022,7 +10045,7 @@
         <v>321</v>
       </c>
       <c r="D323" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -10036,7 +10059,7 @@
         <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -10050,7 +10073,7 @@
         <v>323</v>
       </c>
       <c r="D325" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -10064,7 +10087,7 @@
         <v>324</v>
       </c>
       <c r="D326" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -10078,7 +10101,7 @@
         <v>325</v>
       </c>
       <c r="D327" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -10092,7 +10115,7 @@
         <v>326</v>
       </c>
       <c r="D328" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -10106,7 +10129,7 @@
         <v>1106</v>
       </c>
       <c r="D329" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -10120,7 +10143,7 @@
         <v>328</v>
       </c>
       <c r="D330" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -10134,7 +10157,7 @@
         <v>329</v>
       </c>
       <c r="D331" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -10148,7 +10171,7 @@
         <v>1110</v>
       </c>
       <c r="D332" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -10162,7 +10185,7 @@
         <v>331</v>
       </c>
       <c r="D333" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -10176,7 +10199,7 @@
         <v>1113</v>
       </c>
       <c r="D334" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -10190,7 +10213,7 @@
         <v>24</v>
       </c>
       <c r="D335" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -10204,7 +10227,7 @@
         <v>19</v>
       </c>
       <c r="D336" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -10218,7 +10241,7 @@
         <v>1115</v>
       </c>
       <c r="D337" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -10232,7 +10255,7 @@
         <v>336</v>
       </c>
       <c r="D338" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -10246,7 +10269,7 @@
         <v>337</v>
       </c>
       <c r="D339" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -10260,7 +10283,7 @@
         <v>338</v>
       </c>
       <c r="D340" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -10274,7 +10297,7 @@
         <v>339</v>
       </c>
       <c r="D341" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -10288,7 +10311,7 @@
         <v>340</v>
       </c>
       <c r="D342" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -10302,7 +10325,7 @@
         <v>341</v>
       </c>
       <c r="D343" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -10316,7 +10339,7 @@
         <v>1123</v>
       </c>
       <c r="D344" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -10330,7 +10353,7 @@
         <v>1125</v>
       </c>
       <c r="D345" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -10344,7 +10367,7 @@
         <v>344</v>
       </c>
       <c r="D346" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -10358,7 +10381,7 @@
         <v>345</v>
       </c>
       <c r="D347" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -10372,7 +10395,7 @@
         <v>346</v>
       </c>
       <c r="D348" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -10386,7 +10409,7 @@
         <v>347</v>
       </c>
       <c r="D349" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -10400,7 +10423,7 @@
         <v>348</v>
       </c>
       <c r="D350" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -10414,7 +10437,7 @@
         <v>1132</v>
       </c>
       <c r="D351" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -10428,7 +10451,7 @@
         <v>826</v>
       </c>
       <c r="D352" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -10442,7 +10465,7 @@
         <v>351</v>
       </c>
       <c r="D353" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -10456,7 +10479,7 @@
         <v>1135</v>
       </c>
       <c r="D354" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -10470,7 +10493,7 @@
         <v>353</v>
       </c>
       <c r="D355" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -10484,7 +10507,7 @@
         <v>1138</v>
       </c>
       <c r="D356" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -10498,7 +10521,7 @@
         <v>1140</v>
       </c>
       <c r="D357" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -10512,7 +10535,7 @@
         <v>356</v>
       </c>
       <c r="D358" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -10526,7 +10549,7 @@
         <v>357</v>
       </c>
       <c r="D359" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -10540,7 +10563,7 @@
         <v>358</v>
       </c>
       <c r="D360" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -10554,7 +10577,7 @@
         <v>1145</v>
       </c>
       <c r="D361" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -10568,7 +10591,7 @@
         <v>1147</v>
       </c>
       <c r="D362" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -10582,7 +10605,7 @@
         <v>1149</v>
       </c>
       <c r="D363" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -10596,7 +10619,7 @@
         <v>362</v>
       </c>
       <c r="D364" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -10610,7 +10633,7 @@
         <v>1152</v>
       </c>
       <c r="D365" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -10624,7 +10647,7 @@
         <v>364</v>
       </c>
       <c r="D366" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -10638,7 +10661,7 @@
         <v>365</v>
       </c>
       <c r="D367" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -10652,7 +10675,7 @@
         <v>1156</v>
       </c>
       <c r="D368" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -10666,7 +10689,7 @@
         <v>1158</v>
       </c>
       <c r="D369" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -10680,7 +10703,7 @@
         <v>1160</v>
       </c>
       <c r="D370" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -10694,7 +10717,7 @@
         <v>1152</v>
       </c>
       <c r="D371" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -10708,7 +10731,7 @@
         <v>364</v>
       </c>
       <c r="D372" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -10722,7 +10745,7 @@
         <v>365</v>
       </c>
       <c r="D373" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -10736,7 +10759,7 @@
         <v>1156</v>
       </c>
       <c r="D374" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -10750,7 +10773,7 @@
         <v>1158</v>
       </c>
       <c r="D375" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -10764,7 +10787,7 @@
         <v>1160</v>
       </c>
       <c r="D376" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -10778,7 +10801,7 @@
         <v>369</v>
       </c>
       <c r="D377" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -10792,7 +10815,7 @@
         <v>1163</v>
       </c>
       <c r="D378" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -10806,7 +10829,7 @@
         <v>1165</v>
       </c>
       <c r="D379" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -10820,7 +10843,7 @@
         <v>1167</v>
       </c>
       <c r="D380" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -10834,7 +10857,7 @@
         <v>1169</v>
       </c>
       <c r="D381" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -10848,7 +10871,7 @@
         <v>1171</v>
       </c>
       <c r="D382" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -10862,7 +10885,7 @@
         <v>1173</v>
       </c>
       <c r="D383" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -10876,7 +10899,7 @@
         <v>1175</v>
       </c>
       <c r="D384" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -10890,7 +10913,7 @@
         <v>1177</v>
       </c>
       <c r="D385" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -10904,7 +10927,7 @@
         <v>1179</v>
       </c>
       <c r="D386" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -10918,7 +10941,7 @@
         <v>379</v>
       </c>
       <c r="D387" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -10932,7 +10955,7 @@
         <v>380</v>
       </c>
       <c r="D388" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -10946,7 +10969,7 @@
         <v>1183</v>
       </c>
       <c r="D389" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -10960,7 +10983,7 @@
         <v>382</v>
       </c>
       <c r="D390" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -10974,7 +10997,7 @@
         <v>1186</v>
       </c>
       <c r="D391" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -10988,7 +11011,7 @@
         <v>1188</v>
       </c>
       <c r="D392" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -11002,7 +11025,7 @@
         <v>1190</v>
       </c>
       <c r="D393" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -11016,7 +11039,7 @@
         <v>1192</v>
       </c>
       <c r="D394" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -11030,7 +11053,7 @@
         <v>1194</v>
       </c>
       <c r="D395" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -11044,7 +11067,7 @@
         <v>742</v>
       </c>
       <c r="D396" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -11058,7 +11081,7 @@
         <v>1196</v>
       </c>
       <c r="D397" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -11072,7 +11095,7 @@
         <v>1198</v>
       </c>
       <c r="D398" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -11086,7 +11109,7 @@
         <v>1200</v>
       </c>
       <c r="D399" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -11100,7 +11123,7 @@
         <v>392</v>
       </c>
       <c r="D400" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -11114,7 +11137,7 @@
         <v>1203</v>
       </c>
       <c r="D401" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -11128,7 +11151,7 @@
         <v>1205</v>
       </c>
       <c r="D402" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -11142,7 +11165,7 @@
         <v>1207</v>
       </c>
       <c r="D403" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -11156,7 +11179,7 @@
         <v>1209</v>
       </c>
       <c r="D404" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -11170,7 +11193,7 @@
         <v>397</v>
       </c>
       <c r="D405" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -11184,7 +11207,7 @@
         <v>1212</v>
       </c>
       <c r="D406" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -11198,7 +11221,7 @@
         <v>1214</v>
       </c>
       <c r="D407" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -11212,7 +11235,7 @@
         <v>1216</v>
       </c>
       <c r="D408" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -11226,7 +11249,7 @@
         <v>1218</v>
       </c>
       <c r="D409" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -11240,7 +11263,7 @@
         <v>1220</v>
       </c>
       <c r="D410" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -11254,7 +11277,7 @@
         <v>1222</v>
       </c>
       <c r="D411" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -11268,7 +11291,7 @@
         <v>1224</v>
       </c>
       <c r="D412" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -11282,7 +11305,7 @@
         <v>405</v>
       </c>
       <c r="D413" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -11296,7 +11319,7 @@
         <v>1227</v>
       </c>
       <c r="D414" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -11310,7 +11333,7 @@
         <v>1229</v>
       </c>
       <c r="D415" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -11324,7 +11347,7 @@
         <v>408</v>
       </c>
       <c r="D416" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -11338,7 +11361,7 @@
         <v>409</v>
       </c>
       <c r="D417" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -11352,7 +11375,7 @@
         <v>1233</v>
       </c>
       <c r="D418" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -11366,7 +11389,7 @@
         <v>1235</v>
       </c>
       <c r="D419" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -11380,7 +11403,7 @@
         <v>1237</v>
       </c>
       <c r="D420" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -11394,7 +11417,7 @@
         <v>413</v>
       </c>
       <c r="D421" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -11408,7 +11431,7 @@
         <v>414</v>
       </c>
       <c r="D422" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -11422,7 +11445,7 @@
         <v>415</v>
       </c>
       <c r="D423" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -11436,7 +11459,7 @@
         <v>416</v>
       </c>
       <c r="D424" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -11450,7 +11473,7 @@
         <v>417</v>
       </c>
       <c r="D425" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -11464,7 +11487,7 @@
         <v>418</v>
       </c>
       <c r="D426" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -11478,7 +11501,7 @@
         <v>419</v>
       </c>
       <c r="D427" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -11492,7 +11515,7 @@
         <v>420</v>
       </c>
       <c r="D428" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -11506,7 +11529,7 @@
         <v>421</v>
       </c>
       <c r="D429" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -11520,7 +11543,7 @@
         <v>422</v>
       </c>
       <c r="D430" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -11534,7 +11557,7 @@
         <v>423</v>
       </c>
       <c r="D431" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -11548,7 +11571,7 @@
         <v>424</v>
       </c>
       <c r="D432" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -11562,7 +11585,7 @@
         <v>425</v>
       </c>
       <c r="D433" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -11576,7 +11599,7 @@
         <v>426</v>
       </c>
       <c r="D434" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -11590,7 +11613,7 @@
         <v>1233</v>
       </c>
       <c r="D435" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -11604,7 +11627,7 @@
         <v>1253</v>
       </c>
       <c r="D436" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -11618,7 +11641,7 @@
         <v>129</v>
       </c>
       <c r="D437" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -11632,7 +11655,7 @@
         <v>429</v>
       </c>
       <c r="D438" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -11646,7 +11669,7 @@
         <v>30</v>
       </c>
       <c r="D439" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -11660,7 +11683,7 @@
         <v>431</v>
       </c>
       <c r="D440" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -11674,7 +11697,7 @@
         <v>32</v>
       </c>
       <c r="D441" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -11688,7 +11711,7 @@
         <v>1257</v>
       </c>
       <c r="D442" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -11702,7 +11725,7 @@
         <v>434</v>
       </c>
       <c r="D443" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -11716,7 +11739,7 @@
         <v>1260</v>
       </c>
       <c r="D444" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -11730,7 +11753,7 @@
         <v>1262</v>
       </c>
       <c r="D445" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -11744,7 +11767,7 @@
         <v>1264</v>
       </c>
       <c r="D446" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -11758,7 +11781,7 @@
         <v>1200</v>
       </c>
       <c r="D447" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -11772,7 +11795,7 @@
         <v>1266</v>
       </c>
       <c r="D448" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -11786,7 +11809,7 @@
         <v>1268</v>
       </c>
       <c r="D449" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -11800,7 +11823,7 @@
         <v>440</v>
       </c>
       <c r="D450" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -11814,7 +11837,7 @@
         <v>441</v>
       </c>
       <c r="D451" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -11828,7 +11851,7 @@
         <v>1272</v>
       </c>
       <c r="D452" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -11842,7 +11865,7 @@
         <v>443</v>
       </c>
       <c r="D453" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -11856,7 +11879,7 @@
         <v>444</v>
       </c>
       <c r="D454" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -11870,7 +11893,7 @@
         <v>445</v>
       </c>
       <c r="D455" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -11884,7 +11907,7 @@
         <v>1277</v>
       </c>
       <c r="D456" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -11898,7 +11921,7 @@
         <v>1279</v>
       </c>
       <c r="D457" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -11912,7 +11935,7 @@
         <v>1281</v>
       </c>
       <c r="D458" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -11926,7 +11949,7 @@
         <v>1283</v>
       </c>
       <c r="D459" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -11940,7 +11963,7 @@
         <v>1285</v>
       </c>
       <c r="D460" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -11954,7 +11977,7 @@
         <v>1287</v>
       </c>
       <c r="D461" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -11968,7 +11991,7 @@
         <v>1289</v>
       </c>
       <c r="D462" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -11982,7 +12005,7 @@
         <v>1186</v>
       </c>
       <c r="D463" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -11996,7 +12019,7 @@
         <v>1291</v>
       </c>
       <c r="D464" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -12010,7 +12033,7 @@
         <v>1293</v>
       </c>
       <c r="D465" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -12024,7 +12047,7 @@
         <v>1017</v>
       </c>
       <c r="D466" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -12038,7 +12061,7 @@
         <v>1295</v>
       </c>
       <c r="D467" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -12052,7 +12075,7 @@
         <v>1297</v>
       </c>
       <c r="D468" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -12066,7 +12089,7 @@
         <v>1266</v>
       </c>
       <c r="D469" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -12080,7 +12103,7 @@
         <v>1299</v>
       </c>
       <c r="D470" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -12094,7 +12117,7 @@
         <v>1268</v>
       </c>
       <c r="D471" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -12108,7 +12131,7 @@
         <v>440</v>
       </c>
       <c r="D472" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -12122,7 +12145,7 @@
         <v>456</v>
       </c>
       <c r="D473" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -12136,7 +12159,7 @@
         <v>441</v>
       </c>
       <c r="D474" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -12150,7 +12173,7 @@
         <v>1272</v>
       </c>
       <c r="D475" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -12164,7 +12187,7 @@
         <v>457</v>
       </c>
       <c r="D476" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -12178,7 +12201,7 @@
         <v>443</v>
       </c>
       <c r="D477" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -12192,7 +12215,7 @@
         <v>444</v>
       </c>
       <c r="D478" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -12206,7 +12229,7 @@
         <v>458</v>
       </c>
       <c r="D479" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -12220,7 +12243,7 @@
         <v>459</v>
       </c>
       <c r="D480" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -12234,7 +12257,7 @@
         <v>460</v>
       </c>
       <c r="D481" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -12248,7 +12271,7 @@
         <v>461</v>
       </c>
       <c r="D482" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -12262,7 +12285,7 @@
         <v>462</v>
       </c>
       <c r="D483" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -12276,7 +12299,7 @@
         <v>463</v>
       </c>
       <c r="D484" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -12290,7 +12313,7 @@
         <v>464</v>
       </c>
       <c r="D485" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -12304,7 +12327,7 @@
         <v>1310</v>
       </c>
       <c r="D486" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -12318,7 +12341,7 @@
         <v>1190</v>
       </c>
       <c r="D487" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -12332,7 +12355,7 @@
         <v>1312</v>
       </c>
       <c r="D488" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -12346,7 +12369,7 @@
         <v>1192</v>
       </c>
       <c r="D489" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -12360,7 +12383,7 @@
         <v>1314</v>
       </c>
       <c r="D490" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -12374,7 +12397,7 @@
         <v>466</v>
       </c>
       <c r="D491" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -12388,7 +12411,7 @@
         <v>1156</v>
       </c>
       <c r="D492" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -12402,7 +12425,7 @@
         <v>1317</v>
       </c>
       <c r="D493" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -12416,7 +12439,7 @@
         <v>1319</v>
       </c>
       <c r="D494" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -12430,7 +12453,7 @@
         <v>1321</v>
       </c>
       <c r="D495" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -12444,7 +12467,7 @@
         <v>1323</v>
       </c>
       <c r="D496" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -12458,7 +12481,7 @@
         <v>1325</v>
       </c>
       <c r="D497" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -12472,7 +12495,7 @@
         <v>1327</v>
       </c>
       <c r="D498" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -12486,7 +12509,7 @@
         <v>1329</v>
       </c>
       <c r="D499" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -12500,7 +12523,7 @@
         <v>270</v>
       </c>
       <c r="D500" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -12514,7 +12537,7 @@
         <v>268</v>
       </c>
       <c r="D501" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -12528,7 +12551,7 @@
         <v>269</v>
       </c>
       <c r="D502" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -12542,7 +12565,7 @@
         <v>1015</v>
       </c>
       <c r="D503" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -12556,7 +12579,7 @@
         <v>1331</v>
       </c>
       <c r="D504" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -12570,7 +12593,7 @@
         <v>1285</v>
       </c>
       <c r="D505" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -12584,7 +12607,7 @@
         <v>1333</v>
       </c>
       <c r="D506" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -12598,7 +12621,7 @@
         <v>1335</v>
       </c>
       <c r="D507" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -12612,7 +12635,7 @@
         <v>474</v>
       </c>
       <c r="D508" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -12626,7 +12649,7 @@
         <v>475</v>
       </c>
       <c r="D509" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -12640,7 +12663,7 @@
         <v>1339</v>
       </c>
       <c r="D510" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -12654,7 +12677,7 @@
         <v>1341</v>
       </c>
       <c r="D511" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -12668,7 +12691,7 @@
         <v>1343</v>
       </c>
       <c r="D512" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -12682,7 +12705,7 @@
         <v>1345</v>
       </c>
       <c r="D513" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -12696,7 +12719,7 @@
         <v>1347</v>
       </c>
       <c r="D514" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -12710,7 +12733,7 @@
         <v>1349</v>
       </c>
       <c r="D515" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -12724,7 +12747,7 @@
         <v>1351</v>
       </c>
       <c r="D516" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -12738,7 +12761,7 @@
         <v>1353</v>
       </c>
       <c r="D517" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -12752,7 +12775,7 @@
         <v>1355</v>
       </c>
       <c r="D518" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -12766,7 +12789,7 @@
         <v>1357</v>
       </c>
       <c r="D519" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -12780,7 +12803,7 @@
         <v>1359</v>
       </c>
       <c r="D520" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -12794,7 +12817,7 @@
         <v>1361</v>
       </c>
       <c r="D521" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -12808,7 +12831,7 @@
         <v>1363</v>
       </c>
       <c r="D522" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -12822,7 +12845,7 @@
         <v>1289</v>
       </c>
       <c r="D523" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -12836,7 +12859,7 @@
         <v>1289</v>
       </c>
       <c r="D524" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -12850,7 +12873,7 @@
         <v>1365</v>
       </c>
       <c r="D525" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,7 +12887,7 @@
         <v>1367</v>
       </c>
       <c r="D526" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,7 +12901,7 @@
         <v>1369</v>
       </c>
       <c r="D527" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -12892,7 +12915,7 @@
         <v>487</v>
       </c>
       <c r="D528" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,7 +12929,7 @@
         <v>488</v>
       </c>
       <c r="D529" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -12920,7 +12943,7 @@
         <v>489</v>
       </c>
       <c r="D530" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -12934,7 +12957,7 @@
         <v>1291</v>
       </c>
       <c r="D531" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,7 +12971,7 @@
         <v>1293</v>
       </c>
       <c r="D532" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -12962,7 +12985,7 @@
         <v>1374</v>
       </c>
       <c r="D533" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -12976,7 +12999,7 @@
         <v>1376</v>
       </c>
       <c r="D534" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -12990,7 +13013,7 @@
         <v>1378</v>
       </c>
       <c r="D535" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -13004,7 +13027,7 @@
         <v>1380</v>
       </c>
       <c r="D536" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -13018,7 +13041,7 @@
         <v>1382</v>
       </c>
       <c r="D537" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -13032,7 +13055,7 @@
         <v>1158</v>
       </c>
       <c r="D538" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -13046,7 +13069,7 @@
         <v>1384</v>
       </c>
       <c r="D539" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -13060,7 +13083,7 @@
         <v>1386</v>
       </c>
       <c r="D540" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -13074,7 +13097,7 @@
         <v>1388</v>
       </c>
       <c r="D541" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -13088,7 +13111,7 @@
         <v>1390</v>
       </c>
       <c r="D542" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -13102,7 +13125,7 @@
         <v>1392</v>
       </c>
       <c r="D543" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -13116,7 +13139,7 @@
         <v>1394</v>
       </c>
       <c r="D544" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -13130,7 +13153,7 @@
         <v>1396</v>
       </c>
       <c r="D545" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -13144,7 +13167,7 @@
         <v>1398</v>
       </c>
       <c r="D546" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -13158,7 +13181,7 @@
         <v>1400</v>
       </c>
       <c r="D547" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -13172,7 +13195,7 @@
         <v>1402</v>
       </c>
       <c r="D548" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -13186,7 +13209,7 @@
         <v>1404</v>
       </c>
       <c r="D549" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -13200,7 +13223,7 @@
         <v>1406</v>
       </c>
       <c r="D550" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -13214,7 +13237,7 @@
         <v>505</v>
       </c>
       <c r="D551" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -13228,7 +13251,7 @@
         <v>1409</v>
       </c>
       <c r="D552" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -13242,7 +13265,7 @@
         <v>1411</v>
       </c>
       <c r="D553" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -13256,7 +13279,7 @@
         <v>1413</v>
       </c>
       <c r="D554" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -13270,7 +13293,7 @@
         <v>1415</v>
       </c>
       <c r="D555" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -13284,7 +13307,7 @@
         <v>1417</v>
       </c>
       <c r="D556" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -13298,7 +13321,7 @@
         <v>1419</v>
       </c>
       <c r="D557" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -13312,7 +13335,7 @@
         <v>512</v>
       </c>
       <c r="D558" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -13326,7 +13349,7 @@
         <v>513</v>
       </c>
       <c r="D559" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -13340,7 +13363,7 @@
         <v>514</v>
       </c>
       <c r="D560" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -13354,7 +13377,7 @@
         <v>515</v>
       </c>
       <c r="D561" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -13368,7 +13391,7 @@
         <v>516</v>
       </c>
       <c r="D562" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -13382,7 +13405,7 @@
         <v>517</v>
       </c>
       <c r="D563" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -13396,7 +13419,7 @@
         <v>1427</v>
       </c>
       <c r="D564" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -13410,7 +13433,7 @@
         <v>1429</v>
       </c>
       <c r="D565" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -13424,7 +13447,7 @@
         <v>1431</v>
       </c>
       <c r="D566" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -13438,7 +13461,7 @@
         <v>521</v>
       </c>
       <c r="D567" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -13452,7 +13475,7 @@
         <v>1434</v>
       </c>
       <c r="D568" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -13466,7 +13489,7 @@
         <v>31</v>
       </c>
       <c r="D569" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -13480,7 +13503,7 @@
         <v>1436</v>
       </c>
       <c r="D570" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -13494,7 +13517,7 @@
         <v>525</v>
       </c>
       <c r="D571" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -13508,7 +13531,7 @@
         <v>1439</v>
       </c>
       <c r="D572" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -13522,7 +13545,7 @@
         <v>527</v>
       </c>
       <c r="D573" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -13536,7 +13559,7 @@
         <v>1442</v>
       </c>
       <c r="D574" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -13550,7 +13573,7 @@
         <v>1444</v>
       </c>
       <c r="D575" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -13564,7 +13587,7 @@
         <v>530</v>
       </c>
       <c r="D576" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -13578,7 +13601,7 @@
         <v>531</v>
       </c>
       <c r="D577" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -13592,7 +13615,7 @@
         <v>532</v>
       </c>
       <c r="D578" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -13606,7 +13629,7 @@
         <v>533</v>
       </c>
       <c r="D579" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -13620,7 +13643,7 @@
         <v>534</v>
       </c>
       <c r="D580" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -13634,7 +13657,7 @@
         <v>1451</v>
       </c>
       <c r="D581" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -13648,7 +13671,7 @@
         <v>1169</v>
       </c>
       <c r="D582" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -13662,7 +13685,7 @@
         <v>757</v>
       </c>
       <c r="D583" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -13676,7 +13699,7 @@
         <v>527</v>
       </c>
       <c r="D584" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -13690,7 +13713,7 @@
         <v>1453</v>
       </c>
       <c r="D585" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -13704,7 +13727,7 @@
         <v>1235</v>
       </c>
       <c r="D586" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -13718,7 +13741,7 @@
         <v>1209</v>
       </c>
       <c r="D587" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -13732,7 +13755,7 @@
         <v>1455</v>
       </c>
       <c r="D588" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -13746,7 +13769,7 @@
         <v>538</v>
       </c>
       <c r="D589" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -13760,7 +13783,7 @@
         <v>1458</v>
       </c>
       <c r="D590" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -13774,7 +13797,7 @@
         <v>540</v>
       </c>
       <c r="D591" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -13788,7 +13811,7 @@
         <v>541</v>
       </c>
       <c r="D592" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -13802,7 +13825,7 @@
         <v>542</v>
       </c>
       <c r="D593" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -13816,7 +13839,7 @@
         <v>543</v>
       </c>
       <c r="D594" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -13830,7 +13853,7 @@
         <v>1464</v>
       </c>
       <c r="D595" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -13844,7 +13867,7 @@
         <v>1466</v>
       </c>
       <c r="D596" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -13858,7 +13881,7 @@
         <v>1468</v>
       </c>
       <c r="D597" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -13872,7 +13895,7 @@
         <v>1470</v>
       </c>
       <c r="D598" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -13886,7 +13909,7 @@
         <v>1472</v>
       </c>
       <c r="D599" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -13900,7 +13923,7 @@
         <v>1474</v>
       </c>
       <c r="D600" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -13914,21 +13937,21 @@
         <v>1476</v>
       </c>
       <c r="D601" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>551</v>
       </c>
-      <c r="B602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C602" t="e">
-        <v>#N/A</v>
+      <c r="B602" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1707</v>
       </c>
       <c r="D602" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -13942,7 +13965,7 @@
         <v>552</v>
       </c>
       <c r="D603" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -13956,7 +13979,7 @@
         <v>1479</v>
       </c>
       <c r="D604" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -13970,7 +13993,7 @@
         <v>1481</v>
       </c>
       <c r="D605" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -13984,7 +14007,7 @@
         <v>555</v>
       </c>
       <c r="D606" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -13998,7 +14021,7 @@
         <v>556</v>
       </c>
       <c r="D607" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -14012,7 +14035,7 @@
         <v>557</v>
       </c>
       <c r="D608" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -14023,10 +14046,10 @@
         <v>1485</v>
       </c>
       <c r="C609" t="s">
-        <v>1486</v>
+        <v>1708</v>
       </c>
       <c r="D609" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -14034,13 +14057,13 @@
         <v>559</v>
       </c>
       <c r="B610" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C610" t="s">
         <v>1487</v>
       </c>
-      <c r="C610" t="s">
-        <v>1488</v>
-      </c>
       <c r="D610" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -14048,13 +14071,13 @@
         <v>560</v>
       </c>
       <c r="B611" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C611" t="s">
         <v>1489</v>
       </c>
-      <c r="C611" t="s">
-        <v>1490</v>
-      </c>
       <c r="D611" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -14062,13 +14085,13 @@
         <v>561</v>
       </c>
       <c r="B612" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C612" t="s">
         <v>1491</v>
       </c>
-      <c r="C612" t="s">
-        <v>1492</v>
-      </c>
       <c r="D612" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
@@ -14076,13 +14099,13 @@
         <v>562</v>
       </c>
       <c r="B613" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C613" t="s">
         <v>1493</v>
       </c>
-      <c r="C613" t="s">
-        <v>1494</v>
-      </c>
       <c r="D613" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
@@ -14090,13 +14113,13 @@
         <v>563</v>
       </c>
       <c r="B614" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C614" t="s">
         <v>1495</v>
       </c>
-      <c r="C614" t="s">
-        <v>1496</v>
-      </c>
       <c r="D614" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -14104,13 +14127,13 @@
         <v>564</v>
       </c>
       <c r="B615" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C615" t="s">
         <v>1497</v>
       </c>
-      <c r="C615" t="s">
-        <v>1498</v>
-      </c>
       <c r="D615" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -14118,13 +14141,13 @@
         <v>565</v>
       </c>
       <c r="B616" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C616" t="s">
         <v>1499</v>
       </c>
-      <c r="C616" t="s">
-        <v>1500</v>
-      </c>
       <c r="D616" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -14132,13 +14155,13 @@
         <v>566</v>
       </c>
       <c r="B617" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C617" t="s">
         <v>1501</v>
       </c>
-      <c r="C617" t="s">
-        <v>1502</v>
-      </c>
       <c r="D617" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -14146,13 +14169,13 @@
         <v>567</v>
       </c>
       <c r="B618" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C618" t="s">
         <v>1503</v>
       </c>
-      <c r="C618" t="s">
-        <v>1504</v>
-      </c>
       <c r="D618" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -14160,13 +14183,13 @@
         <v>568</v>
       </c>
       <c r="B619" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C619" t="s">
         <v>1505</v>
       </c>
-      <c r="C619" t="s">
-        <v>1506</v>
-      </c>
       <c r="D619" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -14174,13 +14197,13 @@
         <v>569</v>
       </c>
       <c r="B620" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C620" t="s">
         <v>1507</v>
       </c>
-      <c r="C620" t="s">
-        <v>1508</v>
-      </c>
       <c r="D620" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -14188,13 +14211,13 @@
         <v>570</v>
       </c>
       <c r="B621" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C621" t="s">
         <v>1509</v>
       </c>
-      <c r="C621" t="s">
-        <v>1510</v>
-      </c>
       <c r="D621" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -14202,13 +14225,13 @@
         <v>571</v>
       </c>
       <c r="B622" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C622" t="s">
         <v>1511</v>
       </c>
-      <c r="C622" t="s">
-        <v>1512</v>
-      </c>
       <c r="D622" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -14216,13 +14239,13 @@
         <v>572</v>
       </c>
       <c r="B623" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C623" t="s">
         <v>1513</v>
       </c>
-      <c r="C623" t="s">
-        <v>1514</v>
-      </c>
       <c r="D623" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -14230,13 +14253,13 @@
         <v>573</v>
       </c>
       <c r="B624" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C624" t="s">
         <v>1515</v>
       </c>
-      <c r="C624" t="s">
-        <v>1516</v>
-      </c>
       <c r="D624" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -14244,13 +14267,13 @@
         <v>574</v>
       </c>
       <c r="B625" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C625" t="s">
         <v>574</v>
       </c>
       <c r="D625" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -14258,13 +14281,13 @@
         <v>575</v>
       </c>
       <c r="B626" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C626" t="s">
         <v>1518</v>
       </c>
-      <c r="C626" t="s">
-        <v>1519</v>
-      </c>
       <c r="D626" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -14272,13 +14295,13 @@
         <v>576</v>
       </c>
       <c r="B627" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C627" t="s">
         <v>1520</v>
       </c>
-      <c r="C627" t="s">
-        <v>1521</v>
-      </c>
       <c r="D627" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -14286,27 +14309,27 @@
         <v>577</v>
       </c>
       <c r="B628" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C628" t="s">
         <v>577</v>
       </c>
       <c r="D628" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>578</v>
       </c>
-      <c r="B629" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C629" t="e">
-        <v>#N/A</v>
+      <c r="B629" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1710</v>
       </c>
       <c r="D629" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -14314,13 +14337,13 @@
         <v>579</v>
       </c>
       <c r="B630" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C630" t="s">
         <v>1523</v>
       </c>
-      <c r="C630" t="s">
-        <v>1524</v>
-      </c>
       <c r="D630" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -14328,13 +14351,13 @@
         <v>580</v>
       </c>
       <c r="B631" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C631" t="s">
         <v>1525</v>
       </c>
-      <c r="C631" t="s">
-        <v>1526</v>
-      </c>
       <c r="D631" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -14342,13 +14365,13 @@
         <v>581</v>
       </c>
       <c r="B632" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C632" t="s">
         <v>581</v>
       </c>
       <c r="D632" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -14356,13 +14379,13 @@
         <v>582</v>
       </c>
       <c r="B633" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C633" t="s">
         <v>582</v>
       </c>
       <c r="D633" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -14370,13 +14393,13 @@
         <v>583</v>
       </c>
       <c r="B634" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C634" t="s">
         <v>1529</v>
       </c>
-      <c r="C634" t="s">
-        <v>1530</v>
-      </c>
       <c r="D634" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -14384,13 +14407,13 @@
         <v>584</v>
       </c>
       <c r="B635" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C635" t="s">
         <v>1531</v>
       </c>
-      <c r="C635" t="s">
-        <v>1532</v>
-      </c>
       <c r="D635" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
@@ -14398,13 +14421,13 @@
         <v>585</v>
       </c>
       <c r="B636" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C636" t="s">
         <v>1533</v>
       </c>
-      <c r="C636" t="s">
-        <v>1534</v>
-      </c>
       <c r="D636" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -14412,13 +14435,13 @@
         <v>586</v>
       </c>
       <c r="B637" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C637" t="s">
         <v>1535</v>
       </c>
-      <c r="C637" t="s">
-        <v>1536</v>
-      </c>
       <c r="D637" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -14426,13 +14449,13 @@
         <v>587</v>
       </c>
       <c r="B638" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C638" t="s">
         <v>1537</v>
       </c>
-      <c r="C638" t="s">
-        <v>1538</v>
-      </c>
       <c r="D638" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -14440,13 +14463,13 @@
         <v>588</v>
       </c>
       <c r="B639" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C639" t="s">
         <v>1539</v>
       </c>
-      <c r="C639" t="s">
-        <v>1540</v>
-      </c>
       <c r="D639" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -14454,13 +14477,13 @@
         <v>589</v>
       </c>
       <c r="B640" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C640" t="s">
         <v>1541</v>
       </c>
-      <c r="C640" t="s">
-        <v>1542</v>
-      </c>
       <c r="D640" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
@@ -14468,13 +14491,13 @@
         <v>590</v>
       </c>
       <c r="B641" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C641" t="s">
         <v>1543</v>
       </c>
-      <c r="C641" t="s">
-        <v>1544</v>
-      </c>
       <c r="D641" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
@@ -14482,13 +14505,13 @@
         <v>591</v>
       </c>
       <c r="B642" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C642" t="s">
         <v>1545</v>
       </c>
-      <c r="C642" t="s">
-        <v>1546</v>
-      </c>
       <c r="D642" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
@@ -14496,13 +14519,13 @@
         <v>592</v>
       </c>
       <c r="B643" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C643" t="s">
         <v>1547</v>
       </c>
-      <c r="C643" t="s">
-        <v>1548</v>
-      </c>
       <c r="D643" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
@@ -14510,13 +14533,13 @@
         <v>593</v>
       </c>
       <c r="B644" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C644" t="s">
         <v>593</v>
       </c>
       <c r="D644" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
@@ -14524,13 +14547,13 @@
         <v>594</v>
       </c>
       <c r="B645" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C645" t="s">
         <v>594</v>
       </c>
       <c r="D645" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
@@ -14538,13 +14561,13 @@
         <v>595</v>
       </c>
       <c r="B646" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C646" t="s">
         <v>595</v>
       </c>
       <c r="D646" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -14552,13 +14575,13 @@
         <v>596</v>
       </c>
       <c r="B647" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C647" t="s">
         <v>1552</v>
       </c>
-      <c r="C647" t="s">
-        <v>1553</v>
-      </c>
       <c r="D647" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -14566,13 +14589,13 @@
         <v>597</v>
       </c>
       <c r="B648" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C648" t="s">
         <v>597</v>
       </c>
       <c r="D648" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
@@ -14580,13 +14603,13 @@
         <v>598</v>
       </c>
       <c r="B649" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C649" t="s">
         <v>598</v>
       </c>
       <c r="D649" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
@@ -14594,13 +14617,13 @@
         <v>599</v>
       </c>
       <c r="B650" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C650" t="s">
         <v>1556</v>
       </c>
-      <c r="C650" t="s">
-        <v>1557</v>
-      </c>
       <c r="D650" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -14608,13 +14631,13 @@
         <v>600</v>
       </c>
       <c r="B651" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C651" t="s">
         <v>1558</v>
       </c>
-      <c r="C651" t="s">
-        <v>1559</v>
-      </c>
       <c r="D651" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
@@ -14622,13 +14645,13 @@
         <v>601</v>
       </c>
       <c r="B652" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C652" t="s">
         <v>1560</v>
       </c>
-      <c r="C652" t="s">
-        <v>1561</v>
-      </c>
       <c r="D652" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
@@ -14636,13 +14659,13 @@
         <v>602</v>
       </c>
       <c r="B653" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C653" t="s">
         <v>1562</v>
       </c>
-      <c r="C653" t="s">
-        <v>1563</v>
-      </c>
       <c r="D653" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
@@ -14650,13 +14673,13 @@
         <v>603</v>
       </c>
       <c r="B654" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C654" t="s">
         <v>1564</v>
       </c>
-      <c r="C654" t="s">
-        <v>1565</v>
-      </c>
       <c r="D654" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
@@ -14664,13 +14687,13 @@
         <v>604</v>
       </c>
       <c r="B655" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C655" t="s">
         <v>1566</v>
       </c>
-      <c r="C655" t="s">
-        <v>1567</v>
-      </c>
       <c r="D655" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
@@ -14678,13 +14701,13 @@
         <v>605</v>
       </c>
       <c r="B656" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C656" t="s">
         <v>1568</v>
       </c>
-      <c r="C656" t="s">
-        <v>1569</v>
-      </c>
       <c r="D656" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -14692,13 +14715,13 @@
         <v>606</v>
       </c>
       <c r="B657" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C657" t="s">
         <v>1570</v>
       </c>
-      <c r="C657" t="s">
-        <v>1571</v>
-      </c>
       <c r="D657" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -14706,13 +14729,13 @@
         <v>607</v>
       </c>
       <c r="B658" t="s">
-        <v>1572</v>
+        <v>1711</v>
       </c>
       <c r="C658" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D658" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -14720,13 +14743,13 @@
         <v>608</v>
       </c>
       <c r="B659" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C659" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D659" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -14734,13 +14757,13 @@
         <v>609</v>
       </c>
       <c r="B660" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C660" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D660" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -14748,13 +14771,13 @@
         <v>610</v>
       </c>
       <c r="B661" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C661" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D661" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -14762,13 +14785,13 @@
         <v>611</v>
       </c>
       <c r="B662" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C662" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D662" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -14776,13 +14799,13 @@
         <v>612</v>
       </c>
       <c r="B663" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C663" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D663" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -14790,13 +14813,13 @@
         <v>613</v>
       </c>
       <c r="B664" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C664" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D664" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -14804,13 +14827,13 @@
         <v>614</v>
       </c>
       <c r="B665" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C665" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D665" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -14818,13 +14841,13 @@
         <v>615</v>
       </c>
       <c r="B666" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C666" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D666" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
@@ -14832,13 +14855,13 @@
         <v>616</v>
       </c>
       <c r="B667" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C667" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D667" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -14846,13 +14869,13 @@
         <v>617</v>
       </c>
       <c r="B668" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C668" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D668" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -14860,13 +14883,13 @@
         <v>618</v>
       </c>
       <c r="B669" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C669" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D669" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -14874,13 +14897,13 @@
         <v>619</v>
       </c>
       <c r="B670" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C670" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D670" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -14888,13 +14911,13 @@
         <v>620</v>
       </c>
       <c r="B671" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C671" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D671" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -14902,13 +14925,13 @@
         <v>621</v>
       </c>
       <c r="B672" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C672" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D672" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
@@ -14916,13 +14939,13 @@
         <v>622</v>
       </c>
       <c r="B673" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C673" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D673" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -14930,13 +14953,13 @@
         <v>623</v>
       </c>
       <c r="B674" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C674" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D674" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
@@ -14944,13 +14967,13 @@
         <v>624</v>
       </c>
       <c r="B675" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C675" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D675" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -14958,13 +14981,13 @@
         <v>625</v>
       </c>
       <c r="B676" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C676" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D676" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -14972,13 +14995,13 @@
         <v>626</v>
       </c>
       <c r="B677" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C677" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D677" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -14986,13 +15009,13 @@
         <v>627</v>
       </c>
       <c r="B678" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C678" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D678" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -15000,13 +15023,13 @@
         <v>628</v>
       </c>
       <c r="B679" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C679" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D679" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -15014,13 +15037,13 @@
         <v>629</v>
       </c>
       <c r="B680" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C680" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D680" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -15028,13 +15051,13 @@
         <v>630</v>
       </c>
       <c r="B681" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C681" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D681" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -15042,13 +15065,13 @@
         <v>631</v>
       </c>
       <c r="B682" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C682" t="s">
         <v>631</v>
       </c>
       <c r="D682" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -15056,13 +15079,13 @@
         <v>632</v>
       </c>
       <c r="B683" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C683" t="s">
         <v>632</v>
       </c>
       <c r="D683" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -15070,13 +15093,13 @@
         <v>633</v>
       </c>
       <c r="B684" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C684" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D684" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -15084,13 +15107,13 @@
         <v>634</v>
       </c>
       <c r="B685" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C685" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D685" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -15098,13 +15121,13 @@
         <v>635</v>
       </c>
       <c r="B686" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C686" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D686" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -15112,13 +15135,13 @@
         <v>636</v>
       </c>
       <c r="B687" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C687" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D687" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -15126,13 +15149,13 @@
         <v>637</v>
       </c>
       <c r="B688" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C688" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D688" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -15140,13 +15163,13 @@
         <v>638</v>
       </c>
       <c r="B689" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C689" t="s">
-        <v>1633</v>
+        <v>1712</v>
       </c>
       <c r="D689" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -15154,13 +15177,13 @@
         <v>639</v>
       </c>
       <c r="B690" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C690" t="s">
-        <v>1635</v>
+        <v>1713</v>
       </c>
       <c r="D690" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -15168,13 +15191,13 @@
         <v>640</v>
       </c>
       <c r="B691" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C691" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="D691" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -15182,13 +15205,13 @@
         <v>641</v>
       </c>
       <c r="B692" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C692" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="D692" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -15196,13 +15219,13 @@
         <v>642</v>
       </c>
       <c r="B693" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C693" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="D693" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -15210,13 +15233,13 @@
         <v>643</v>
       </c>
       <c r="B694" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C694" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D694" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -15224,13 +15247,13 @@
         <v>644</v>
       </c>
       <c r="B695" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C695" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="D695" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -15238,13 +15261,13 @@
         <v>645</v>
       </c>
       <c r="B696" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C696" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="D696" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -15252,13 +15275,13 @@
         <v>646</v>
       </c>
       <c r="B697" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C697" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="D697" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
@@ -15266,13 +15289,13 @@
         <v>647</v>
       </c>
       <c r="B698" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C698" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="D698" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -15280,13 +15303,13 @@
         <v>648</v>
       </c>
       <c r="B699" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C699" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="D699" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -15294,13 +15317,13 @@
         <v>649</v>
       </c>
       <c r="B700" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C700" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="D700" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
@@ -15308,13 +15331,13 @@
         <v>650</v>
       </c>
       <c r="B701" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C701" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="D701" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
@@ -15322,13 +15345,13 @@
         <v>651</v>
       </c>
       <c r="B702" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C702" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D702" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -15336,13 +15359,13 @@
         <v>652</v>
       </c>
       <c r="B703" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C703" t="s">
         <v>652</v>
       </c>
       <c r="D703" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -15350,13 +15373,13 @@
         <v>653</v>
       </c>
       <c r="B704" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C704" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D704" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
@@ -15370,7 +15393,7 @@
         <v>1078</v>
       </c>
       <c r="D705" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
@@ -15378,13 +15401,13 @@
         <v>655</v>
       </c>
       <c r="B706" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C706" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D706" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
@@ -15392,13 +15415,13 @@
         <v>656</v>
       </c>
       <c r="B707" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C707" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D707" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
@@ -15406,13 +15429,13 @@
         <v>657</v>
       </c>
       <c r="B708" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C708" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="D708" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
@@ -15426,7 +15449,7 @@
         <v>1074</v>
       </c>
       <c r="D709" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
@@ -15434,13 +15457,13 @@
         <v>659</v>
       </c>
       <c r="B710" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C710" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D710" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
@@ -15448,13 +15471,13 @@
         <v>660</v>
       </c>
       <c r="B711" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C711" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D711" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
@@ -15462,13 +15485,13 @@
         <v>661</v>
       </c>
       <c r="B712" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="C712" t="s">
-        <v>1674</v>
+        <v>1714</v>
       </c>
       <c r="D712" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
@@ -15476,13 +15499,13 @@
         <v>662</v>
       </c>
       <c r="B713" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="C713" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="D713" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
@@ -15490,13 +15513,13 @@
         <v>663</v>
       </c>
       <c r="B714" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C714" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="D714" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
@@ -15504,13 +15527,13 @@
         <v>664</v>
       </c>
       <c r="B715" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="C715" t="s">
         <v>664</v>
       </c>
       <c r="D715" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
@@ -15518,13 +15541,13 @@
         <v>665</v>
       </c>
       <c r="B716" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="C716" t="s">
         <v>665</v>
       </c>
       <c r="D716" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
@@ -15532,13 +15555,13 @@
         <v>666</v>
       </c>
       <c r="B717" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="C717" t="s">
         <v>666</v>
       </c>
       <c r="D717" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
@@ -15546,13 +15569,13 @@
         <v>667</v>
       </c>
       <c r="B718" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="C718" t="s">
         <v>667</v>
       </c>
       <c r="D718" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
@@ -15560,13 +15583,13 @@
         <v>668</v>
       </c>
       <c r="B719" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C719" t="s">
         <v>668</v>
       </c>
       <c r="D719" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
@@ -15574,13 +15597,13 @@
         <v>669</v>
       </c>
       <c r="B720" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="C720" t="s">
         <v>669</v>
       </c>
       <c r="D720" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -15588,13 +15611,13 @@
         <v>670</v>
       </c>
       <c r="B721" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="C721" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="D721" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
@@ -15602,13 +15625,13 @@
         <v>671</v>
       </c>
       <c r="B722" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C722" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="D722" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
@@ -15616,13 +15639,13 @@
         <v>672</v>
       </c>
       <c r="B723" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="C723" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="D723" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
@@ -15630,13 +15653,13 @@
         <v>673</v>
       </c>
       <c r="B724" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="C724" t="s">
         <v>673</v>
       </c>
       <c r="D724" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -15644,13 +15667,13 @@
         <v>674</v>
       </c>
       <c r="B725" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="C725" t="s">
         <v>674</v>
       </c>
       <c r="D725" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -15658,13 +15681,13 @@
         <v>675</v>
       </c>
       <c r="B726" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="C726" t="s">
         <v>675</v>
       </c>
       <c r="D726" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
@@ -15672,13 +15695,13 @@
         <v>676</v>
       </c>
       <c r="B727" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="C727" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="D727" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
@@ -15686,13 +15709,13 @@
         <v>677</v>
       </c>
       <c r="B728" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="C728" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D728" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
@@ -15700,13 +15723,13 @@
         <v>678</v>
       </c>
       <c r="B729" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="C729" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="D729" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
@@ -15714,13 +15737,13 @@
         <v>679</v>
       </c>
       <c r="B730" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="C730" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="D730" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
@@ -15728,13 +15751,13 @@
         <v>680</v>
       </c>
       <c r="B731" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="C731" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="D731" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -15742,13 +15765,13 @@
         <v>681</v>
       </c>
       <c r="B732" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="C732" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="D732" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
@@ -15756,13 +15779,27 @@
         <v>682</v>
       </c>
       <c r="B733" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="C733" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D733" t="s">
-        <v>1709</v>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1704</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A566FFD1-FBBE-49DA-86E0-E9ACA10F78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213783C0-C9B7-40E6-8760-065E6BED66FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5179,14 +5179,15 @@
     <t>HUAWEI MateBook X Pro MRG-W76(Intel Iris Xe Intel  i7-1195G7 16GB+1TB)触屏深空灰</t>
   </si>
   <si>
-    <t>D3250-10-SIU 1T 500万红外AI半球型摄像机(设备+安装调试费)无色</t>
-  </si>
-  <si>
     <t>ZC-CD-88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D3250-10-SIU500万红外AI半球型摄像机(设备安装调试费)（国贸资产）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3250-10-SIU 1T 500万红外AI半球型摄像机(设备+安装调试费)无色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5514,8 +5515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0">
-      <selection activeCell="D731" sqref="D731"/>
+    <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
+      <selection activeCell="B734" sqref="B734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15790,13 +15791,13 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B734" t="s">
         <v>1715</v>
       </c>
-      <c r="B734" t="s">
+      <c r="C734" t="s">
         <v>1716</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1717</v>
       </c>
       <c r="D734" t="s">
         <v>1704</v>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F9C5EF-EDAF-430D-B821-8D7AECC75DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCAC3A-2B47-4C6D-A3F4-090AD3D3EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1719">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -5102,6 +5102,93 @@
   </si>
   <si>
     <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)演示样机贝母白</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 13 WRTD-WFH9Q(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏樱粉金</t>
+  </si>
+  <si>
+    <t>HW01-NB-13-WRTD-WFH9-YFJ01</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 13 WRTD-WFH9Q(Intel 集显Iris I5-1135G7 16GB＋512GB)触屏樱粉金</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14s HKD-W76(Intel iris Xe Intel i7 16GB+1TB)触屏深空灰</t>
+  </si>
+  <si>
+    <t>HW01-NB-14S-HKD-W76-SKH-1TB</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14s HKD-W76(Intel iris Xe Intel i7-11370H 16GB+1TB)触屏深空灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 5G BAH3-AN10(128GB+8GB)夜阑灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH3-AN10-8128-YLH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 5G BAH3-AN10(128GB+8GB)夜阑灰 全网</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 5G BAH3-AN10(128GB+8GB)贝母白</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH3-AN10-8128-BMB</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 5G BAH3-AN10(128GB+8GB)贝母白 全网</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14s HKD-W56(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏皓月银</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14s HKD-W56(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14s HKD-W56(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏云杉绿</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14s HKD-W76(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏云杉绿</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL60(8G+256G)麒麟9000拂晓粉</t>
+  </si>
+  <si>
+    <t>HUAWEI Mate X2 典藏版 TET-AN50(12G+512G)锦白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-MATE X2 DCB-12512-JB</t>
+  </si>
+  <si>
+    <t>HUAWEI Mate X2 典藏版TET-AN50(12G+512G) 锦白</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W76(Intel Iris Xe Intel i7 16GB+512GB)触屏皓月银</t>
+  </si>
+  <si>
+    <t>HW01-NB-X PRO-MRG-W76-HYY</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W76(Intel Iris Xe Intel i7-1195G 16GB+512GB)触屏皓月银</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W56(Intel Iris Xe Intel i5 16GB+512GB)触屏皓月银</t>
+  </si>
+  <si>
+    <t>HW01-NB-X PRO-MRG-W56-HYY</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W56(Intel Iris Xe Intel i5-1155G7 16GB+512GB)触屏皓月银</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W56(Intel Iris Xe Intel i5 16GB+512GB)触屏翡冷翠</t>
+  </si>
+  <si>
+    <t>HW01-NB-X PRO-MRG-W56-FLC</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook X Pro MRG-W56(Intel Iris Xe Intel i5-1155G7 16GB+512GB)触屏翡冷翠</t>
   </si>
 </sst>
 </file>
@@ -5426,17 +5513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D685"/>
+  <dimension ref="A1:D698"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="E699" sqref="E699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.44140625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="3" max="3" width="76.44140625" customWidth="1"/>
     <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15030,6 +15117,188 @@
         <v>1512</v>
       </c>
     </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B690" t="s">
+        <v>729</v>
+      </c>
+      <c r="C690" t="s">
+        <v>60</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCAC3A-2B47-4C6D-A3F4-090AD3D3EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB89D3CD-7F93-46E0-8A48-72F1096FA58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1785">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -5189,6 +5189,204 @@
   </si>
   <si>
     <t>HUAWEI MateBook X Pro MRG-W56(Intel Iris Xe Intel i5-1155G7 16GB+512GB)触屏翡冷翠</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 13 WRTD-WFH9Q(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MateStation X CZNM-W76T(AMD Ryzen 7 AMD Radeon 16GB+512GB)触屏皓月银</t>
+  </si>
+  <si>
+    <t>HW01-TS-MS X-CZNM-W76T-HYY</t>
+  </si>
+  <si>
+    <t>华为氮化镓超薄充电器(Max 66W) P0009白演示样机</t>
+  </si>
+  <si>
+    <t>HW09-YZQT-CDQ-P0009-B YJ</t>
+  </si>
+  <si>
+    <t>华为氮化镓超薄充电器(Max 66W)P0009白色演示样机</t>
+  </si>
+  <si>
+    <t>HUAWEI 高键程智能键盘 CD34深空灰演示样机</t>
+  </si>
+  <si>
+    <t>HW09-YZQT-JS-CD34-SKH YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI 高键程智能键盘 CD34 深空灰陈列样机</t>
+  </si>
+  <si>
+    <t>华为儿童手表 4X NIK-AL00(浅粉氟橡胶表带)樱语粉</t>
+  </si>
+  <si>
+    <t>智能手表 VID-B99(黑色氟橡胶表带)曜石黑</t>
+  </si>
+  <si>
+    <t>HW04-CD-WATCH-VID-B99-YSH -1</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH 智能手表 VID-B99(黑色氟橡胶表带)曜石黑</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pocket 艺术定制皮革保护壳 C-Bali-Premium Case鎏光灰</t>
+  </si>
+  <si>
+    <t>HW09-YZQT-BHL-P53Pocket-PGBHK-LGH</t>
+  </si>
+  <si>
+    <t>HUAWEI P50Pocket 艺术定制皮革保护壳 鎏光灰</t>
+  </si>
+  <si>
+    <t>HUAWEI Mate 40E Pro NOH-AN50(8G+256G))(不含充电器和数据线秘银</t>
+  </si>
+  <si>
+    <t>HW03-SJ-MATE40E P-8256-MY</t>
+  </si>
+  <si>
+    <t>HUAWEI Mate 40E Pro NOH-AN50(8G+256G))(不含充电器和数据线)秘银</t>
+  </si>
+  <si>
+    <t>nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)幻夜黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA9 SE-8128-HYH</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)幻夜黑</t>
+  </si>
+  <si>
+    <t>nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)冰晶蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA9 SE-8128-BJL</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)冰晶蓝</t>
+  </si>
+  <si>
+    <t>nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)贝母白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA9 SE-8128-BMB</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+128GB)贝母白</t>
+  </si>
+  <si>
+    <t>nova 9 SE 全网通 4G版 JLN-AL00(8GB+256GB)贝母白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA9 SE-8256-BMB</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+256GB)贝母白</t>
+  </si>
+  <si>
+    <t>nova 9 SE 全网通 4G版 JLN-AL00(8GB+256GB)幻夜黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA9 SE-8256-HYH</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+256GB)幻夜黑</t>
+  </si>
+  <si>
+    <t>nova 9 SE 全网通 4G版 JLN-AL00(8GB+256GB)冰晶蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-NOVA9 SE-8256-BJL</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 9 SE 全网通 4G版 JLN-AL00(8GB+256GB)冰晶蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI FreeBuds 4E 有线充版 T0008 演示样机陶瓷白</t>
+  </si>
+  <si>
+    <t>HW06-YP-FreeBuds4-TCB YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI Sound Joy 智能音箱 EGRT-00 样机云杉绿</t>
+  </si>
+  <si>
+    <t>HW10-HLK-YP-SOUND-EGRT-00-YSL YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI Sound Joy 智能音箱 EGRT-00 样机曜石黑</t>
+  </si>
+  <si>
+    <t>HW10-HLK-YP-SOUND-EGRT-00-YSH YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI Sound Joy 智能音箱 EGRT-00 样机珊瑚红</t>
+  </si>
+  <si>
+    <t>HW10-HLK-YP-SOUND-EGRT-00-SHH YJ</t>
+  </si>
+  <si>
+    <t>华为蓝牙鼠标(第二代)CD23夏日胡杨</t>
+  </si>
+  <si>
+    <t>HW09-YZQT-JS-CD23-XRHY</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB)演示样机曜石灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-W19-664-YSH YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版 演示样机可可茶金</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8128-KKCJ YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版 演示样机星河蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8128-XHL YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad Paper HMW-W09(6GB+128GB)演示样机墨黑</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-HMW-W09-6128-MH YJ</t>
+  </si>
+  <si>
+    <t>华为手环 B6 FDS-B19(山茶褐皮腕带)山茶褐</t>
+  </si>
+  <si>
+    <t>HW04-CD-SH-FDS-B19-SCH</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 JPT-B29(蓝橙编织表带)无色</t>
+  </si>
+  <si>
+    <t>HW04-CD-WATCH GT3 JPT-B29-LC</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版 演示样机雪域白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8128-XYB YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL00(8G+128G)高通骁龙888 演示样机星河蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 Pro-8128-XHL YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G  JAD-AL00(8G+128G)演示样机 高通骁龙888星河蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad Paper HMW-W09(6GB+128GB)墨黑</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-HMW-W09-6128-MH</t>
   </si>
 </sst>
 </file>
@@ -5513,10 +5711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D698"/>
+  <dimension ref="A1:D727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="E699" sqref="E699"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15197,9 +15395,6 @@
       <c r="C691" t="s">
         <v>1155</v>
       </c>
-      <c r="D691" t="s">
-        <v>1512</v>
-      </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
@@ -15211,9 +15406,6 @@
       <c r="C692" t="s">
         <v>1183</v>
       </c>
-      <c r="D692" t="s">
-        <v>1512</v>
-      </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
@@ -15225,9 +15417,6 @@
       <c r="C693" t="s">
         <v>1357</v>
       </c>
-      <c r="D693" t="s">
-        <v>1512</v>
-      </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
@@ -15296,6 +15485,412 @@
         <v>1718</v>
       </c>
       <c r="D698" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C704" t="s">
+        <v>299</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D727" t="s">
         <v>1512</v>
       </c>
     </row>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB89D3CD-7F93-46E0-8A48-72F1096FA58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD6001-578C-41FB-A04A-AB6D31F008D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1843">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -5387,6 +5387,180 @@
   </si>
   <si>
     <t>HW02-PAD-MatePad-HMW-W09-6128-MH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+128GB)演示样机海岛蓝</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-W19-6128-HDL YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL00(8G+256G)高通骁龙888 演示样机丹霞橙</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 Pro-8256-DXC YJ </t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL00(8G+256G)高通骁龙888 演示样机云锦白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 Pro-8256-YJB YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI Sound Joy 智能音箱 EGRT-00曜石黑</t>
+  </si>
+  <si>
+    <t>HW10-HLK-YP-SOUND-EGRT-YSH</t>
+  </si>
+  <si>
+    <t>HUAWEI Sound Joy 智能音箱 EGRT-00云杉绿</t>
+  </si>
+  <si>
+    <t>HW10-HLK-YP-SOUND-EGRT-YSL</t>
+  </si>
+  <si>
+    <t>HUAWEI Sound Joy 智能音箱 EGRT-00珊瑚红</t>
+  </si>
+  <si>
+    <t>HW10-HLK-YP-SOUND-EGRT-SHH</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+256G) 全网通 4G版曜金黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8128-YJH</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+128G) 曜金黑</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+256G) 全网通 4G版雪域白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8256-XYB</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+256G)雪域白</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+256G) 全网通 4G版可可茶金</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8256-KKCJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+256G) 可可茶金</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(6GB+128GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-WO9-6128-YSH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(128GB+6GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(6GB+64GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-WO9-664-YSH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(64GB+6GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-AL10(6GB+128GB)海岛蓝</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-AL10-6128-HDL</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-AL10(128GB+6GB)海岛蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI FreeBuds 4E 有线充版 T0008陶瓷白</t>
+  </si>
+  <si>
+    <t>HW06-YP-FreeBuds 4E-TCB</t>
+  </si>
+  <si>
+    <t>HUAWEI FreeBuds 4E 有线充版 T0008冰霜银</t>
+  </si>
+  <si>
+    <t>HW06-YP-FreeBuds 4E-BSY</t>
+  </si>
+  <si>
+    <t>HUAWEI FreeBuds 4E 有线充版 T0008蜜语红</t>
+  </si>
+  <si>
+    <t>HW06-YP-FreeBuds 4E-MYH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(6GB+64GB)冰霜银</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-WO9-664-BSY</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(6GB+64GB)冰霜银</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-AL10(6GB+128GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-AL10-6128-YSH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-AL10(128GB+6GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB)冰霜银</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-W19-664-BSY</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB) 冰霜银</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(6GB+128GB)海岛蓝</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-WO9-6128-HDL</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad BAH4-W09(128GB+6GB)海岛蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-W19-664-YSH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB) 曜石灰</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+128GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-W19-6128-YSH</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(128GB+6GB)曜石灰</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版可可茶金</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8128-KKCJ</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+128G) 可可茶金</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版曜金黑</t>
   </si>
 </sst>
 </file>
@@ -5711,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D727"/>
+  <dimension ref="A1:D754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15894,6 +16068,384 @@
         <v>1512</v>
       </c>
     </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD6001-578C-41FB-A04A-AB6D31F008D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A22FF-1784-4CCE-92FA-B759E0B4D7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1881">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -5561,6 +5561,120 @@
   </si>
   <si>
     <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版曜金黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8256-YJH</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+256G) 曜金黑</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+128G) 全网通 4G版雪域白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8128-XYB</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+128G)雪域白</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+128GB)全网通版 演示样机雅致黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8128-YZH YJ</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+128GB)雅致黑演示样机</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+128GB)全网通版 演示样机海雾蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8128-HWL YJ</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+128GB)海雾蓝演示样机</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+128GB)全网通版 演示样机珠贝白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8128-ZBB YJ</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+128GB)珠贝白演示样机</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL00(8G+128G)高通骁龙888星河蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 Pro-8128-XHL</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G  JAD-AL00(8G+128G)高通骁龙888星河蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL00(8G+256G)高通骁龙888星河蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 Pro-8256-XHL</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G  JAD-AL00(8G+256G)高通骁龙888星河蓝</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+256GB)全网通版海雾蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8256-HWL</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+256GB)海雾蓝</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+128GB)全网通版珠贝白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8128-ZBB</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+128GB)珠贝白</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+128GB)全网通版雅致黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8128-YZH</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+128GB)雅致黑</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+128GB)全网通版海雾蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8128-HWL</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+128GB)海雾蓝</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+256GB)全网通版珠贝白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8256-ZBB</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+256GB)珠贝白</t>
+  </si>
+  <si>
+    <t>优畅享50 Plus 5G VP005(8GB+256GB)全网通版雅致黑</t>
+  </si>
+  <si>
+    <t>HW03-SJ-ZXSJ-U-Magic UCX50 P-8256-YZH</t>
+  </si>
+  <si>
+    <t>华为U-Magic优畅享50Plus 5G VP005(8GB+256GB)雅致黑</t>
   </si>
 </sst>
 </file>
@@ -5885,17 +5999,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D754"/>
+  <dimension ref="A1:D762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="76.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
     <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15569,6 +15683,9 @@
       <c r="C691" t="s">
         <v>1155</v>
       </c>
+      <c r="D691" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
@@ -15580,6 +15697,9 @@
       <c r="C692" t="s">
         <v>1183</v>
       </c>
+      <c r="D692" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
@@ -15591,6 +15711,9 @@
       <c r="C693" t="s">
         <v>1357</v>
       </c>
+      <c r="D693" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
@@ -15664,13 +15787,13 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1619</v>
+        <v>1719</v>
       </c>
       <c r="B699" t="s">
-        <v>1620</v>
+        <v>1144</v>
       </c>
       <c r="C699" t="s">
-        <v>1621</v>
+        <v>1145</v>
       </c>
       <c r="D699" t="s">
         <v>1512</v>
@@ -15678,13 +15801,13 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B700" t="s">
-        <v>1144</v>
+        <v>1721</v>
       </c>
       <c r="C700" t="s">
-        <v>1145</v>
+        <v>1720</v>
       </c>
       <c r="D700" t="s">
         <v>1512</v>
@@ -15692,27 +15815,27 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="B701" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C701" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="D701" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="B702" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="C702" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="D702" t="s">
         <v>1511</v>
@@ -15720,27 +15843,27 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B703" t="s">
-        <v>1726</v>
+        <v>1015</v>
       </c>
       <c r="C703" t="s">
-        <v>1727</v>
+        <v>299</v>
       </c>
       <c r="D703" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B704" t="s">
-        <v>1015</v>
+        <v>1730</v>
       </c>
       <c r="C704" t="s">
-        <v>299</v>
+        <v>1731</v>
       </c>
       <c r="D704" t="s">
         <v>1512</v>
@@ -15748,41 +15871,41 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B705" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C705" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="D705" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B706" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C706" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="D706" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="B707" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="C707" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="D707" t="s">
         <v>1512</v>
@@ -15790,13 +15913,13 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B708" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C708" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D708" t="s">
         <v>1512</v>
@@ -15804,13 +15927,13 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="B709" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="C709" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="D709" t="s">
         <v>1512</v>
@@ -15818,13 +15941,13 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B710" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="C710" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="D710" t="s">
         <v>1512</v>
@@ -15832,13 +15955,13 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B711" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="C711" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="D711" t="s">
         <v>1512</v>
@@ -15846,13 +15969,13 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B712" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="C712" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="D712" t="s">
         <v>1512</v>
@@ -15860,27 +15983,27 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B713" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="C713" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D713" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B714" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="C714" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="D714" t="s">
         <v>1511</v>
@@ -15888,13 +16011,13 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B715" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C715" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="D715" t="s">
         <v>1511</v>
@@ -15902,13 +16025,13 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B716" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C716" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D716" t="s">
         <v>1511</v>
@@ -15916,13 +16039,13 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B717" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C717" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D717" t="s">
         <v>1511</v>
@@ -15930,27 +16053,27 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B718" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="C718" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D718" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B719" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C719" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="D719" t="s">
         <v>1512</v>
@@ -15958,13 +16081,13 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="B720" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="C720" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D720" t="s">
         <v>1512</v>
@@ -15972,13 +16095,13 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="B721" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="C721" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="D721" t="s">
         <v>1512</v>
@@ -15986,13 +16109,13 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B722" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C722" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="D722" t="s">
         <v>1512</v>
@@ -16000,13 +16123,13 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B723" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="C723" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D723" t="s">
         <v>1512</v>
@@ -16014,13 +16137,13 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B724" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C724" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="D724" t="s">
         <v>1512</v>
@@ -16028,13 +16151,13 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B725" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C725" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="D725" t="s">
         <v>1512</v>
@@ -16042,13 +16165,13 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="B726" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="C726" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D726" t="s">
         <v>1512</v>
@@ -16056,13 +16179,13 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B727" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="C727" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="D727" t="s">
         <v>1512</v>
@@ -16070,13 +16193,13 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="B728" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="C728" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="D728" t="s">
         <v>1512</v>
@@ -16084,13 +16207,13 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B729" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="C729" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="D729" t="s">
         <v>1512</v>
@@ -16098,27 +16221,27 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B730" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="C730" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="D730" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B731" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C731" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="D731" t="s">
         <v>1511</v>
@@ -16126,27 +16249,27 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="B732" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C732" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="D732" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B733" t="s">
-        <v>1796</v>
+        <v>1843</v>
       </c>
       <c r="C733" t="s">
-        <v>1795</v>
+        <v>1844</v>
       </c>
       <c r="D733" t="s">
         <v>1512</v>
@@ -16154,13 +16277,13 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B734" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="C734" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="D734" t="s">
         <v>1512</v>
@@ -16168,13 +16291,13 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B735" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="C735" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D735" t="s">
         <v>1512</v>
@@ -16182,13 +16305,13 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B736" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C736" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D736" t="s">
         <v>1512</v>
@@ -16196,13 +16319,13 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B737" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="C737" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="D737" t="s">
         <v>1512</v>
@@ -16210,13 +16333,13 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="B738" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C738" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="D738" t="s">
         <v>1512</v>
@@ -16224,97 +16347,97 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="B739" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="C739" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D739" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B740" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="C740" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="D740" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="B741" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="C741" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="D741" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B742" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C742" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="D742" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1793</v>
+        <v>1824</v>
       </c>
       <c r="B743" t="s">
-        <v>1794</v>
+        <v>1825</v>
       </c>
       <c r="C743" t="s">
-        <v>1793</v>
+        <v>1826</v>
       </c>
       <c r="D743" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1791</v>
+        <v>1827</v>
       </c>
       <c r="B744" t="s">
-        <v>1792</v>
+        <v>1828</v>
       </c>
       <c r="C744" t="s">
-        <v>1791</v>
+        <v>1829</v>
       </c>
       <c r="D744" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1795</v>
+        <v>1830</v>
       </c>
       <c r="B745" t="s">
-        <v>1796</v>
+        <v>1831</v>
       </c>
       <c r="C745" t="s">
-        <v>1795</v>
+        <v>1832</v>
       </c>
       <c r="D745" t="s">
         <v>1512</v>
@@ -16322,13 +16445,13 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1821</v>
+        <v>1833</v>
       </c>
       <c r="B746" t="s">
-        <v>1822</v>
+        <v>1834</v>
       </c>
       <c r="C746" t="s">
-        <v>1823</v>
+        <v>1835</v>
       </c>
       <c r="D746" t="s">
         <v>1512</v>
@@ -16336,13 +16459,13 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1812</v>
+        <v>1836</v>
       </c>
       <c r="B747" t="s">
-        <v>1813</v>
+        <v>1837</v>
       </c>
       <c r="C747" t="s">
-        <v>1814</v>
+        <v>1838</v>
       </c>
       <c r="D747" t="s">
         <v>1512</v>
@@ -16350,13 +16473,13 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1824</v>
+        <v>1839</v>
       </c>
       <c r="B748" t="s">
-        <v>1825</v>
+        <v>1840</v>
       </c>
       <c r="C748" t="s">
-        <v>1826</v>
+        <v>1841</v>
       </c>
       <c r="D748" t="s">
         <v>1512</v>
@@ -16364,13 +16487,13 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1827</v>
+        <v>1842</v>
       </c>
       <c r="B749" t="s">
-        <v>1828</v>
+        <v>1798</v>
       </c>
       <c r="C749" t="s">
-        <v>1829</v>
+        <v>1799</v>
       </c>
       <c r="D749" t="s">
         <v>1512</v>
@@ -16378,13 +16501,13 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1830</v>
+        <v>1845</v>
       </c>
       <c r="B750" t="s">
-        <v>1831</v>
+        <v>1846</v>
       </c>
       <c r="C750" t="s">
-        <v>1832</v>
+        <v>1847</v>
       </c>
       <c r="D750" t="s">
         <v>1512</v>
@@ -16392,13 +16515,13 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="B751" t="s">
         <v>1834</v>
       </c>
       <c r="C751" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D751" t="s">
         <v>1512</v>
@@ -16406,13 +16529,13 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1836</v>
+        <v>1848</v>
       </c>
       <c r="B752" t="s">
-        <v>1837</v>
+        <v>1849</v>
       </c>
       <c r="C752" t="s">
-        <v>1838</v>
+        <v>1850</v>
       </c>
       <c r="D752" t="s">
         <v>1512</v>
@@ -16420,13 +16543,13 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1839</v>
+        <v>1851</v>
       </c>
       <c r="B753" t="s">
-        <v>1840</v>
+        <v>1852</v>
       </c>
       <c r="C753" t="s">
-        <v>1841</v>
+        <v>1853</v>
       </c>
       <c r="D753" t="s">
         <v>1512</v>
@@ -16434,15 +16557,127 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1842</v>
+        <v>1854</v>
       </c>
       <c r="B754" t="s">
-        <v>1798</v>
+        <v>1855</v>
       </c>
       <c r="C754" t="s">
-        <v>1799</v>
+        <v>1856</v>
       </c>
       <c r="D754" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D762" t="s">
         <v>1512</v>
       </c>
     </row>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A22FF-1784-4CCE-92FA-B759E0B4D7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8EB6A-F095-409C-90BB-045902125932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6001,8 +6001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D762"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A746" workbookViewId="0">
+      <selection activeCell="C762" sqref="C762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8EB6A-F095-409C-90BB-045902125932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC400317-91F8-41DD-9D69-72A19DA38097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1907">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -5675,6 +5675,84 @@
   </si>
   <si>
     <t>华为U-Magic优畅享50Plus 5G VP005(8GB+256GB)雅致黑</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 Pro FRG-B19(白色陶瓷表带)样机无色</t>
+  </si>
+  <si>
+    <t>HW04-CD-WATCH GT3 P-FRG-B19-B YJ01</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 Pro FRG-B19(白色陶瓷表带)白色演示样机</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 Pro FRG-B19(白色真皮表带)样机无色</t>
+  </si>
+  <si>
+    <t>HW04-CD-WATCH GT3 P-FRG-B19-B YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 Pro FRG-B19(白色真皮表带)白色演示样机</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 Pro ODN-B19(黑色氟橡胶表带) 样机无色</t>
+  </si>
+  <si>
+    <t>HW04-CD-WATCH GT3 P-ODN-B19-H YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 Pro ODN-B19(黑色氟橡胶表带)黑色演示样机</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 保时捷设计 ODN-B19(黑色钛金属表带) 样机无色</t>
+  </si>
+  <si>
+    <t>HW04-CD-WATCH GT3-ODN-B19-H YJ</t>
+  </si>
+  <si>
+    <t>HUAWEI WATCH GT 3 保时捷设计 ODN-B19(黑色钛金属表带)黑色演示样机</t>
+  </si>
+  <si>
+    <t>ZP-HW-110600C00-B</t>
+  </si>
+  <si>
+    <t>华为超级快充充电器(Max 66W)德国TÜV安全认证|USB-C数据线 HW-110600C00白 非卖品</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+128GB)海岛蓝</t>
+  </si>
+  <si>
+    <t>HW02-PAD-MatePad-BAH4-W19-6128-HDL</t>
+  </si>
+  <si>
+    <t>HUAWEI MatePad 悦动版 BAH4-W19(128GB+6GB)海岛蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E ABR-AL60(8G+256G) 全网通 4G版星河蓝</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 E-8256-XHL</t>
+  </si>
+  <si>
+    <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+256G)星河蓝</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14 KLVD-WFH9(Intel Iris Xe Intel i5 Win11 16GB+512GB) 非触屏深空灰</t>
+  </si>
+  <si>
+    <t>HW01-NB-14- KLVD-WFH9-SKH01</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14 KLVD-WFH9(Intel Iris Xe Intel i5 Win11 16GB+512GB)深空灰</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL00(8G+512G)高通骁龙888云锦白</t>
+  </si>
+  <si>
+    <t>HW03-SJ-P50 Pro-8512-YJB</t>
+  </si>
+  <si>
+    <t>HUAWEI P50 Pro 4G JAD-AL50(8G+512G)高通骁龙888 云锦白</t>
   </si>
 </sst>
 </file>
@@ -5999,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D762"/>
+  <dimension ref="A1:D771"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A746" workbookViewId="0">
-      <selection activeCell="C762" sqref="C762"/>
+      <selection activeCell="D772" sqref="D772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16681,6 +16759,132 @@
         <v>1512</v>
       </c>
     </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>182</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC400317-91F8-41DD-9D69-72A19DA38097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DB658-B8B2-4C5A-AE40-78A3782174C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1905">
   <si>
     <t>HUAWEI 5A数据线AP71白</t>
   </si>
@@ -5711,12 +5711,6 @@
   </si>
   <si>
     <t>HUAWEI WATCH GT 3 保时捷设计 ODN-B19(黑色钛金属表带)黑色演示样机</t>
-  </si>
-  <si>
-    <t>ZP-HW-110600C00-B</t>
-  </si>
-  <si>
-    <t>华为超级快充充电器(Max 66W)德国TÜV安全认证|USB-C数据线 HW-110600C00白 非卖品</t>
   </si>
   <si>
     <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+128GB)海岛蓝</t>
@@ -6077,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D771"/>
+  <dimension ref="A1:D770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A746" workbookViewId="0">
-      <selection activeCell="D772" sqref="D772"/>
+    <sheetView tabSelected="1" topLeftCell="A749" workbookViewId="0">
+      <selection activeCell="E773" sqref="E773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16817,27 +16811,27 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>182</v>
+        <v>1893</v>
       </c>
       <c r="B767" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C767" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D767" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B768" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C768" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D768" t="s">
         <v>1512</v>
@@ -16845,13 +16839,13 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B769" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C769" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D769" t="s">
         <v>1512</v>
@@ -16859,29 +16853,15 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B770" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C770" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D770" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D771" t="s">
         <v>1512</v>
       </c>
     </row>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -19310,6 +19310,820 @@
         </is>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W29(6GB+64GB)冰霜银</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-WO9-664-BSY</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W09(6GB+64GB)冰霜银</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 14 NbDE-WFH9(Intel Iris Xe Intel i5 Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 14-NbDE-WFH9-HYY</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 14 NbDE-WFH9(Intel Iris Xe Intel i5-1155G7  16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>华为手环 7 LEA-B19(原野绿硅胶表带)原野绿</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>HW04-CD-SH-LEA-B19-YYL</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>华为手环 7 LEA-B19(原野绿硅胶表带)原野绿</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 GLL-AL30(黑色氟橡胶表带)黑</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH 3-GLL-AL00-H</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 GLL-AL00(黑色氟橡胶表带)黑</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>华为畅享 50 MGA-AL00(8GB+256GB)冰晶蓝</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8256-BJL</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+256G)冰晶蓝</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>华为畅享 50 MGA-AL00(8GB+256GB)贝母白</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8256-BMB</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+256G)贝母白</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版云锦白</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8256-YJB</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版 云锦白</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+512G) 全网通 4G版云锦白</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8512YJB</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+512G) 全网通 4G版 云锦白</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+512G) 全网通 4G版天青蓝</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8512TQL</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+512G) 全网通 4G版天青蓝</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版天青蓝</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8256-TQL</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版 天青蓝</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版天青蓝</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8256-TQL</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版 天青蓝</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版云锦白</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8256-YJB</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL00(8G+256G) 全网通 4G版 云锦白</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-PLWS</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-QJSL</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)10号色</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-SHS</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)10号色</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)10号色</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-SHS</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)10号色</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-QJSL</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)10号色</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-SHS</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)10号色</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-PLWS</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)10号色</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-SHC</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)10号色</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-PLWS</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>HW01-NB-14-KLVF-W7651T-SKH</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-W7651T(Intel I7-1260P 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-16(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>HW01-NB-14-KLVF-W5651T-SKH</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-W5651T(Intel I5-1240P 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16s CREF-16(Intel iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>HW01-NB-16S-CREF-16-SKH01</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16S CREF-16(Intel iris Xe Intel I5-12500H 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i7 Win11 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 16- RLEF-16-SKH01</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i7-12700H 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-QJSL</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-QJSL</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-PLWS</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>华为畅享 50 MGA-AL00(8GB+256GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8256-HYH</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+256G)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Mate40液态硅胶保护壳白</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>ZP-HW-MT40BHK-B</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Mate40 液态硅胶保护壳 白 非卖品</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Mate40液态硅胶保护壳黑</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>ZP-YTBHK</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Mate40 液态硅胶保护壳 黑 非卖品</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i5 Win11 16GB+512GB) 样机深空灰</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 16- RLEF-16-SKH YJ</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i5-12500H 16GB+512GB)深空灰 样机</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>HUAWEI 无线鼠标 WYN深空灰 样机</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-WYN-SKH YJ</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>HUAWEI WYN 无线鼠标 深空灰样机</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -33218,6 +34032,358 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+128GB NCO-AL00 10号色手机</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-SHC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)10号色</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+128GB NCO-AL00 曜金黑手机</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+128GB NCO-AL00 绮境森林手机</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-QJSL</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+128GB NCO-AL00 普罗旺斯手机</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8128-PLWS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+128GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+256GB NCO-AL00 10号色手机</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-SHS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)10号色</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+256GB NCO-AL00 曜金黑手机</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+256GB NCO-AL00 绮境森林手机</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-QJSL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>华为nova 10 8GB+256GB NCO-AL00 普罗旺斯手机</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10-8256-PLWS</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>nova 10 NCO-AL00(8GB+256GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+256GB GLA-AL00 10号色手机</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-SHS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)10号色</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+256GB GLA-AL00 曜金黑手机</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+256GB GLA-AL00 绮境森林手机</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-QJSL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+256GB GLA-AL00 普罗旺斯手机</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8256-PLWS</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+256GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+128GB GLA-AL00 10号色手机</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-SHS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)10号色</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+128GB GLA-AL00 曜金黑手机</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+128GB GLA-AL00 绮境森林手机</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-QJSL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)绮境森林</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>华为nova 10 Pro 8GB+128GB GLA-AL00 普罗旺斯手机</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>HW03-SJ-NOVA10 P-8128-PLWS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>nova 10 Pro GLA-AL00(8GB+128GB)普罗旺斯</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -20124,6 +20124,1062 @@
         </is>
       </c>
     </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 14 NbF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 14- NbF-WFE9A-HYY</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 14 NbF-WFE9A(Intel I7-1260P 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>华为蓝牙鼠标(第二代)CD23银色(青春版)</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-CD23-Y</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>华为蓝牙鼠标(第二代)CD23银色(青春版)</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>华为蓝牙鼠标(第二代) CD23-C灰色(青春版)</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-CD23-H</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>华为蓝牙鼠标(第二代)CD23灰色(青春版)</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16s CREF-16(Intel iris Xe Intel i7 Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>HW01-NB-16S-CREF-16-HYY</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16S CREF-16(Intel iris Xe Intel I7-12700H 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16s CREF-16(Intel iris Xe Intel i7 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>HW01-NB-16S-CREF-16-SKH</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16S CREF-16(Intel iris Xe Intel I7-12700H 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i7 Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 16- RLEF-16-HYY</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i7-12700H 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH GT 3 JPT-B29(不锈钢金属表带)无色</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH GT3  MIL-B19-JS</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH GT 3 JPT-B19(不锈钢金属表带)金属色</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>华为手环 7 LEA-B19(星云粉硅胶表带)星云粉</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>HW04-CD-SH-LEA-B19-XYF</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>华为手环 7 LEA-B19(星云粉硅胶表带)星云粉</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>华为手环 7 NFC版 LEA-B29(曜石黑硅胶表带)曜石黑</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>HW04-CD-SH-LEA-B29-YSH</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>华为手环 7 NFC版 LEA-B29(曜石黑硅胶表带)</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>华为路由AX6 7200Mbps Wi-Fi6 无线路由器 WS8700 边缘路由器白</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>HW07-IOT-ZL-AX6-WS8700-B</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>华为路由AX6 7200Mbps Wi-Fi6无线路由器(WS8700)白色</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>华为路由 Q6 子母装 WS7290 V2 PT9030 V2 边缘路由器白样机</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>HW07-IOT-ZL-Q6BYLYQ-B YJ</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>华为路由Q6子母装(WS7290 V2 PT9030 V2 )边缘路由器 白 样机</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL60(8G+256G) 全网通 4G版拂晓粉</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 E-8256-FXF</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+256G) 拂晓粉</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>5G通信壳 Dorado仿金属灰</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-P50 PTXK-FJSH</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>P50Pro 5G通信壳 Dorado 仿金属灰</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 Pro new GLL-AL09(钛金属表带)钛灰</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH GT3 P-GLL-AL09-THS</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 Pro new GLL-AL09(钛金属表带)钛灰</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 Pro new GLL-AL09(棕色真皮表带)钛灰</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH GT3 P-GLL-AL09-TH</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 Pro new GLL-AL09(棕色真皮表带)钛灰</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH FIT 2 时尚款 YDA-B19V(月光白真皮表带)月光白</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH FIT 2 YDA-B19V-YGB</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH FIT 2 时尚款 YDA-B19V(月光白真皮表带)月光白</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i5 Win11 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 16- RLEF-16-SKH</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i5-12500H 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-16(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>HW01-NB-14-KLVF-W5651T-SKH</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-W5651T(Intel I5-1240P 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+128GB)演示样机曜金黑</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W29-8128-YJH YJ</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+128GB)演示样机曜金黑</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 演示样机冰霜银</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>HW06-YP-FreeBuds Pro-BSY YJ</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 演示样机冰霜银</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 演示样机星河蓝</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>HW08-YP-FreeBuds Pro-XHL YJ</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 演示样机星河蓝</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 演示样机陶瓷白</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>HW07-YP-FreeBuds Pro-TCB YJ</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 演示样机陶瓷白</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 13s EMD-W56(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>HW01-NB-13s-EMD-W56-SKH</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 13s EMD-W56(Intel iris Xe Intel i5-11300H 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i5 Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 16- RLEF-16-HYY01</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 16 RLEF-16(Intel iris Xe Intel i5-12500H 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 11 DBY-W09(8GB+128GB)樱语粉</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad 11-DBY-W09-8128-YYF</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 11 DBY-W09(8GB+128GB)樱语粉</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006星河蓝</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>HW08-YP-FreeBuds Pro-XHL</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 星河蓝</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006陶瓷白</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>HW06-YP-FreeBuds Pro-TCB</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 陶瓷白</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006冰霜银</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>HW06-YP-FreeBuds Pro-BSY</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>HUAWEI FreeBuds Pro 2 T0006 冰霜银</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)演示样机翡冷翠</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8128-FLC YJ</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)演示样机 翡冷翠</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)演示样机星海蓝</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8128-ZHL YJ</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)演示样机 星海蓝 </t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏 样机锦白</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-JB YJ</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I7-1260P Win11 16GB+512GB)触屏锦白 演示样机</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏 样机墨蓝</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-ML YJ</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I7-1260P Win11 16GB+512GB)触屏墨蓝 演示样机</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>HW01-NB-14S-HKF-16-SKH</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel I5-12500H Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+1TB)触屏锦白</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-JB01</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7-1260P Win11 16GB+1TB)触屏锦白</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-SKH</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I7-1260P Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-HYY</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I7-1260P Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏墨蓝</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-ML</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I7-1260P Win11 16GB+512GB)触屏墨蓝</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏锦白</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-JB</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I7-1260P Win11 16GB+512GB)触屏锦白</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7 Win11 16GB+1TB)触屏墨蓝</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-ML01</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i7-1260P Win11 16GB+1TB)触屏墨蓝</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel i5 Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>HW01-NB-14S-HKF-16-HYY</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel I5-12500H Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8128-HYH</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+256GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8256-FLC</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+256GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+256GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8256-HYH</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+256GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+256GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8256-XHL</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+256GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8128-FLC</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>华为儿童手表 4 Pro( 大圣英雄款)ASN-AL10(红色硅胶表带)大圣红</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>HW04-CD-ETSB-ASN-AL10-DSH</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>华为儿童手表 4 Pro ASN-AL10( 大圣英雄款)(红色硅胶表带)大圣红</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>华为儿童手表 4 Pro( 深海奇幻款)ASN-AL10(青色硅胶表带)深海青</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>HW04-CD-ETSB-ASN-AL10-SHQ</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>华为儿童手表 4 Pro ASN-AL10( 深海奇幻款)(青色硅胶表带)深海青</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8128-XHL</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -34384,6 +35440,248 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 6GB+128GB WiFi版 BAH4-W29 曜石灰</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-W29-6128-YSH</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W29(128GB+6GB)曜石灰WIFI</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 6GB+128GB WiFi版 BAH4-W29 海岛蓝</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-W29-6128-HDL</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W29(128GB+6GB)海岛蓝 WiFi</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 6GB+64GB WiFi版 BAH4-W29 曜石灰</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-W29-664-YSH</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W29(6GB+64GB)曜石灰WIFI</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>华为畅享50 6GB+128G MGA-AL00全网通版 幻夜黑手机</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-6128-HYH</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(6G+128G)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>华为畅享50 8GB+128G MGA-AL00全网通版 贝母白手机</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8128-BMB</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+128G)贝母白</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>华为畅享50 8GB+128G MGA-AL00全网通版 冰晶蓝手机</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8128-BJL</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+128G)冰晶蓝</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>华为畅享50 8GB+128G MGA-AL00全网通版 幻夜黑手机</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8128-HYH</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+128G)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>华为畅享50 8GB+128G MGA-AL00全网通版 冰晶蓝手机</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-6128-BJL</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(6G+128G)冰晶蓝</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>华为畅享50 8GB+256G MGA-AL00全网通版 幻夜黑手机</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50-8256-HYH</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华为畅享50 MGA-AL00(8G+256G)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 6GB+64GB WiFi版 BAH4-W19 曜石灰</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-W19-664-YSH</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB)曜石灰</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 6GB+64GB WiFi版 BAH4-W19 冰霜银</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-W19-664-BSY</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad 悦动版 BAH4-W19(6GB+64GB) 冰霜银</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/excel/ptT.xlsx
+++ b/src/main/resources/excel/ptT.xlsx
@@ -19824,7 +19824,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>HW03-SJ-NOVA10-8128-SHC</t>
+          <t>HW03-SJ-NOVA10-8128-SH</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -21175,6 +21175,4428 @@
         </is>
       </c>
       <c r="D957" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-AL09(8GB+256GB)性能版曜金黑</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-AL09-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-AL09(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W29-8256-XHL</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W29-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)晶钻白</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W29-8256-JZB</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)晶钻白</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+256GB)性能版曜金黑</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W09-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+256GB)性能版星河蓝</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W09-8256-XHL</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+256GB)性能版晶钻白</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W09-8256-JZB</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+256GB)晶钻白</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+128GB)性能版晶钻白</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W09-8128-JZB</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+128GB)晶钻白</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(12GB+512GB)性能版曜金黑</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W09-12512-YJH</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(12GB+512GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>HUAWEI MateStation X CZNM-W56T(AMD Ryzen 5 AMD Radeon Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>HW01-TS-MS- CZNM-W56T-SKH01</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>HUAWEI MateStation X CZNM-W56T(AMD Ryzen 5 AMD Radeon Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>HUAWEI MateStation X CZNM-W56T(AMD Ryzen 5 AMD Radeon Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>HW01-TS-MS- CZNM-W56T-HYY01</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>HUAWEI MateStation X CZNM-W56T(AMD Ryzen 5 AMD Radeon Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+128GB)性能版曜金黑</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W09-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W09(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>HUAWEI M-Pencil CD54雪域白</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-CD54-XYB</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>HUAWEI M-Pencil CD54雪域白</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>华为智能磁吸键盘 C-Goethe-Keyboard大象灰</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-C-Goethe-Keyboard-DXH</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>华为智能磁吸键盘 C-Goethe-Keyboard大象灰</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)晶钻白</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-W29-8256-JZB</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-W29(8GB+256GB)晶钻白</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL00(8G+512G)高通骁龙888曜金黑</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8512-YJH01</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G  JAD-AL00(8G+512G)高通骁龙888曜金黑</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate Xs 2 4G PAL-AL00(8GB+256GB) 全网通版霜紫</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE XS 2-8256-SZ</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate XS 2 4G PAL-AL00(8GB+256GB)霜紫</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Paper HMW-W09(4GB+64GB)锦白</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-HMW-W09-464-JB</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Paper HMW-W09(4GB+64GB)锦白</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Paper HMW-W09(4GB+64GB)墨黑</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-HMW-W09-464-MH</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Paper HMW-W09(4GB+64GB)墨黑</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>HW01-NB-X PRO-MRGF-16-SKH0</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X Pro MRGF-16(Intel Iris Xe I5-1240P Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel i7 Win11 16GB+1TB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>HW01-NB-14S-HKF-16-SKH02</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel I7-12700H Win11 16GB+1TB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel i5 Win11 16GB+512GB)触屏云杉绿</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>HW01-NB-14S-HKF-16-YSL</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14s HKF-16(Intel iris Xe Intel I5-12500H Win11 16GB+512GB)触屏云杉绿</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16s CREF-16(Intel iris Xe Intel i9 Win11 16GB+1TB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>HW01-NB-16S-CREF-16-SKH02</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16S CREF-16(Intel iris Xe Intel I9-12900H 16GB+1TBGB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X EULD-WFE9(Intel iris Xe Intel i7 Win11 16GB+512GB)触屏冰霜银</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>HW01-NB-X-EULD-WFE9-BSY</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X EULD-WFE9(Intel iris Xe Intel i7 16GB+512GB )触屏冰霜银</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X EULD-WFE9(Intel iris Xe Intel i7 Win11 16GB+512GB)触屏青山黛</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>HW01-NB-X-EULD-WFE9-QSD</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X EULD-WFE9(Intel iris Xe Intel i7 16GB+512GB )触屏青山黛</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 13s EMD-W56(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>HW01-NB-13s-EMD-W56-HYY</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 13s EMD-W56(Intel iris Xe Intel i5-11300H 16GB+512GB)触屏皓月银</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 15 BoDE-WFE9(Intel Iris Xe Intel i7 Win11 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 15-BoDE-WFE9-SKH</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 15 BoDE-WFE9(Intel Iris Xe Intel i7-1195G7 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 15 BoDE-WFE9(Intel Iris Xe Intel i7 Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 15-BoDE-WFE9-HYY</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 15 BoDE-WFE9(Intel Iris Xe Intel i7-1195G7 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+128G)全网通版 曜金黑</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版可可茶金</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8128-KKCJ</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+128G)全网通版 可可茶金</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版雪域白</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8128-XYB</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+128G)全网通版 雪域白</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+256G)全网通版雪域白</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8256-XYB</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+256G)全网通版 雪域白</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+256G)全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+256G)全网通版 曜金黑</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+256G)全网通版可可茶金</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8256-KKCJ</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+256G)全网通版 可可茶金</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版 演示样机曜金黑</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8128-YJH YJ</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech P50 5G AVA-PA00(8G+128G)全网通版 曜金黑样机</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版 演示样机雪域白</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8128-XYB YJ</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版 雪域白演示样机</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版 演示样机可可茶金</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-P50-8128-KKCJ YJ</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>TD Tech P50 5G AVA-PA00(8G+128G)全网通版 可可茶金演示样机</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>TD Tech M40 5G TDT-MA01(8G+256G)全网通(高配版)亮黑</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-M40-8256-LH01</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech M40 5G TDT-MA01(8G+256G)全网通(高配版)亮黑</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)演示样机星海蓝</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8128-XHL YJ</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)演示样机星海蓝</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-AL19(12GB+512GB)性能版锦白</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-GOT-AL19-12512-JB</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro GOT-AL19(12GB+512GB)锦白 性能版</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8128-HYH</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8128-FLC</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+256GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8256-HYH</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+256GB)幻夜黑</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+256GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8256-XHL</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+256GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+256GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8256-FLC</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+256GB)翡冷翠</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>哈尔斯智能水杯旋盖款 HDM-450-36 样机黑</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>HW10-HLK-BWB-HDM-450-16-H YJ</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>智能家居哈尔斯保温杯HDM-450-16 黑样机</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>华为智选 海雀智能摄像头Pro 4K版 GD02 3K样机无色</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>HW10-HLK-SXT-GD02WS YJ</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>华为智选 海雀智能摄像头Pro(4K版 GD02)无色样机</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>HUAWEI 轻尚双肩包 Parker-CD66幻夜黑</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-QSSJB-CD66-HYH YJ</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>HUAWEI 轻尚双肩包 Parker-CD66幻夜黑样机</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)演示样机幻夜黑</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8128-HYH YJ</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)演示样机幻夜黑</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-16(Intel Iris Xe Intel i5 Win11 16GB+512GB)触屏 样机深空灰</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>HW01-NB-14S-KLVF-16-SKH</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 14 KLVF-16(Intel iris Xe Intel I5-1240P Win11 16GB+512GB)触屏深空灰 样机</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>TD Tech M40 5G TDT-MA01(8G+128G)全网通(高配版)亮黑</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-M40-8128-LH01</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech M40 5G TDT-MA01(8G+128G)全网通(高配版)亮黑</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>TD Tech M40 5G TDT-MA01(8G+256G)全网通(高配版)秘银</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-M40-8256-MY01</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech M40 5G TDT-MA01(8G+256G)全网通(高配版)秘银</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>TD Tech M40 5G TDT-MA01(8G+256G)全网通(高配版)釉白</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-TD Tech 5G-M40-8256-YB01</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>鼎桥TD Tech M40 5G TDT-MA01(8G+256G)全网通(高配版)釉白</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 硅胶保护壳橘红</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-P50-BHK-JH</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 硅胶保护壳 橘红</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 花意漫城主题保护壳 C-Amber-PU fashion case兰舞申城</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-P50-ZTBHK-LWSC</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 花意漫城主题保护壳 C-Amber-PU fashion case兰舞申城</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 花意漫城主题保护壳 C-Amber-PU fashion case梅漫江城</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-P50-ZTBHK-MMJC</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 花意漫城主题保护壳 C-Amber-PU fashion case梅漫江城</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)演示样机翡冷翠</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8128-HYH YJ</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)演示样机幻夜黑</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 演示样机昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-KLPX YJ</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 演示样机 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版 演示样机墨蓝瓷</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 RS-512-MLC YJ</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版 演示样机 墨蓝瓷</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机曜金黑</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-YJH YJ</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机 曜金黑</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机昆仑霞光</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-KNXG YJ</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机 昆仑霞光</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 128GB 全网通版 演示样机冰霜银</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-128-BSY YJ</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 128GB 全网通版 演示样机 冰霜银</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 演示样机昆仑霞光</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-KLXG YJ</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 演示样机 昆仑霞光</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版 演示样机胭紫瓷</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 RS-512-YZC YJ</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版 演示样机 胭紫瓷</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-KLPX YJ</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机冰霜银</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-BSY YJ</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机 冰霜银</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机流光紫</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-LGZ YJ</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机 流光紫</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 128GB 全网通版 演示样机曜金黑</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-128-YJH YJ</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 128GB 全网通版 演示样机 曜金黑</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 128GB 全网通版 演示样机流光紫</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-128-LGZ YJ</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 128GB 全网通版 演示样机 流光紫</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-KLPX YJ</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 演示样机 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)樱语粉键盘 样机雪域白</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-G56-XYB YJ</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)雪域白 樱语粉键盘 演示样机</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)星云灰键盘 样机星云灰</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-G56-XYH YJ</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)星云灰 星云灰键盘 演示样机</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB) 演示样机星河蓝</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P 4G-WGRR-W09-8128-XHL YJ</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB) 演示样机 星河蓝</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-YJH</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 曜金黑</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版流光紫</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-LGZ</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 流光紫</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-KLPX</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版昆仑霞光</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-KLXG</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 昆仑霞光</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版昆仑霞光</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-512-KLXG</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版 昆仑霞光</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-512-KLPX</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-512-YJH</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版  曜金黑</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版流光紫</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-512-LGZ</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版 流光紫</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版墨蓝瓷</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 RS-512-MLC</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版 墨蓝瓷</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-512-YJH</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版 曜金黑</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版流光紫</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-512-LGZ</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版 流光紫</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-512-KLPX</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-YJH</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 曜金黑</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版流光紫</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-LGZ</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 流光紫</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版昆仑破晓</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-KLPX</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 昆仑破晓</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版昆仑霞光</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-KLXG</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版 昆仑霞光</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮智能视窗保护套胭紫</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate 50RS-ZPBHK-YZ</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮智能视窗保护套 胭紫</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>环闪保护壳 DRACO-RC贝母白</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-DRACO-RC-BMB01</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>环闪保护壳 DRACO-RC贝母白（Mate50 Pro）</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 手带支架保护壳 Draco ACC-band case-U天空蓝</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50 P-ZJBHK-JDH</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 手带支架保护壳 Draco ACC-band case-U天空蓝</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 手带支架保护壳 Draco ACC-band case-U经典黑</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50 P-ZJBHK-TKL</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 手带支架保护壳 Draco ACC-band case-U经典黑</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 智能视窗保护套 Draco ACC-flip cover经典黑</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50 P-SCBHK-JDH</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 智能视窗保护套 Draco ACC-flip cover经典黑</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 硅胶保护壳雅白</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50 P-GJBHK-YB</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 硅胶保护壳雅白</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 硅胶保护壳黑</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50 P-GJBHK-H</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 硅胶保护壳黑</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 硅胶保护壳胭紫</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50 P-GJBHK-YZ</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 Pro 硅胶保护壳胭紫</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 I Mate50E 手带支架保护壳 Cetus ACC-band case-U经典黑</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50-ZJBHK-JDH</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 I Mate50E 手带支架保护壳 Cetus ACC-band case-U经典黑</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 I Mate50E 手带支架保护壳 Cetus ACC-band case-U天空蓝</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50-ZJBHK-TKL</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 I Mate50E 手带支架保护壳 Cetus ACC-band case-U天空蓝</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-658石墨黑</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-SY108-658-SMH</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-658石墨黑（Mate50 Pro）</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 I Mate50E 智能视窗保护套 Cetus ACC-flip cover经典黑</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50-SCBHK-JDH</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 I Mate50E 智能视窗保护套 Cetus ACC-flip cover经典黑</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>环闪保护壳 CETUS-RC贝母白</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-CETUS-RC-BMB</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>环闪保护壳 CETUS-RC贝母白(Mate50)</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 l Mate50E 硅胶保护壳雅白</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50E-GJBHK-YB</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 l Mate50E 硅胶保护壳雅白</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 l Mate50E 硅胶保护壳胭紫</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50E-GJBHK-YZ</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 l Mate50E 硅胶保护壳胭紫</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 l Mate50E 硅胶保护壳黑</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate50E-GJBHK-H</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate50 l Mate50E 硅胶保护壳黑</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-618石墨黑</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-SY108-618-SMH</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-618石墨黑(Mate50）</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮智能视窗保护套墨蓝</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate 50RS-ZPBHK-ML01</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮智能视窗保护套 墨蓝</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮保护壳墨蓝</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate 50RS-ZPBHK-ML</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮保护壳 Draco ACC-leather case-P墨蓝</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)樱语粉键盘雪域白</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-G56-XYB 01</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)樱语粉键盘 雪域白</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8256-XHL</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)星云灰键盘星云灰</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-G56-XYH</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)星云灰键盘 星云灰</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)雪域白键盘雪域白</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-G56-XYB</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)雪域白键盘 雪域白</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)星际蓝键盘星云灰</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-G56-XYH01</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-G56(Win11 16GB+512GB)星际蓝键盘 星云灰</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W19(12GB+512GB)锦白</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-12512-JB</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W19(12GB+512GB)锦白</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8128-XHL</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>HUAWEI Sound X 智能音箱 FLMG-10鎏光金</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>HW10-HLK-YP-SOUND-FLMG-10-LGJ</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>HUAWEI Sound X 智能音箱 FLMG-10鎏光金</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate Xs 2 4G PAL-AL00(8GB+512GB) 全网通版雅黑</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE XS 2-8512-YH</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate XS 2 4G PAL-AL00(8GB+512GB)雅黑</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>华为蓝牙鼠标(第二代)CD23灰色(青春版)</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-CD23-H</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>华为蓝牙鼠标(第二代)CD23灰色(青春版)</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版胭紫瓷</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 RS-512-YZC</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 4G DCO-AL00 512GB 全网通版 胭紫瓷</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版昆仑霞光</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-512-KLXG</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版 昆仑霞光</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-256-BSY</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 256GB 全网通版 冰霜银</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-256-BSY</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 256GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 P-512-BSY</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 Pro 4G DCO-AL00 512GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50-512-BSY</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 4G CET-AL00 512GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>麦芒·十年臻爱版 5G TYH612M(8G+256G)曜石黑</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-MM-8256-YSH</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>麦芒 十年臻爱版-TYH612M(8G+256G)曜石黑</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>麦芒·十年臻爱版 5G TYH612M(8G+256G)极光蓝</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-MM-8256-JGL</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>麦芒 十年臻爱版-TYH612M(8G+256G)极光蓝</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>麦芒·十年臻爱版 5G TYH612M(8G+128G)曜石黑</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-MM-8128-YSH01</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>麦芒 十年臻爱版-TYH612M(8G+128G)曜石黑</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>麦芒·十年臻爱版 5G TYH612M(8G+128G)极光蓝</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-MM-8128-JGL01</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>麦芒 十年臻爱版-TYH612M(8G+128G)极光蓝</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>环闪保护壳 CETUS-RC贝母白</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-CETUS-RC-BMB</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>环闪保护壳 CETUS-RC贝母白(Mate50)</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>华为手环 7 NFC版 LEA-B29(烈焰红硅胶表带)烈焰红</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>HW04-CD-SH 7-LEA-B29-KYH</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>华为手环 7 NFC版 LEA-B29(烈焰红硅胶表带)烈焰红</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 GLL-AL30(棕色真皮表带)钢</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH 3-GLL-AL30-G</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 GLL-AL30(棕色真皮表带)钢</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>华为智选 海雀AI摄像头 云台超清版2.5K HQ8C白</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>HW10-HLK-SXT-HQ8C-B</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>华为智选 海雀AI摄像头 云台超清版2.5K HQ8C白</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>华为智选 海雀智能摄像头S 3K版 DZ01 3K白</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>HW10-HLK-SXT-DZ01-B</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>华为智选 海雀智能摄像头S 3K版 DZ01 3K白</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能儿童牙刷LBT-153015A粉</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>HW10-HLK-ZNYS-LBRT-F</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能儿童牙刷LBT-153015A粉</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能儿童牙刷LBT-153015A蓝</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>HW10-HLK-ZNYS-LBRT-L</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能儿童牙刷LBT-153015A蓝</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH FIT 2 雅致款 YDA-B19V(冰霜银米兰尼斯表带)冰霜银</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH FIT 2 YDA-B19V-BSY</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH FIT 2 雅致款 YDA-B19V(冰霜银米兰尼斯表带)冰霜银</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>HUAWEI 无线鼠标 WYN深空灰</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-WYN-SKH</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>HUAWEI WYN 无线鼠标 深空灰</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-NZONE 5G-50P-8128-XHL</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>NZONE 50 Pro 5G SP210(8GB+128GB)星海蓝</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮保护壳墨蓝</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate 50RS-ZPBHK-ML</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮保护壳 Draco ACC-leather case-P墨蓝</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮保护壳胭紫</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate 50RS-ZPBHK-YZ01</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮保护壳 Draco ACC-leather case-P胭紫</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮智能视窗保护套胭紫</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-Mate 50RS-ZPBHK-YZ</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50 RS 保时捷设计 真皮智能视窗保护套 胭紫</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>环闪保护壳 DRACO-RC贝母白</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-DRACO-RC-BMB01</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>环闪保护壳 DRACO-RC贝母白（Mate50 Pro）</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W19(12GB+512GB)锦白</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-12512-JB</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W19(12GB+512GB)锦白</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8128-XHL</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8128-YJH</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+128GB)曜金黑</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-WGRR-W19-8256-XHL</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Pro WGRR-W09(8GB+256GB)星河蓝</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 Pro new GLL-AL08(棕色真皮表带)钛灰</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH 3 P-GLL-AL08-TH</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH 3 Pro new GLL-AL08(棕色真皮表带)钛灰</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 15 BoDE-WFH9(Intel Iris Xe Intel i5 Win11 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>HW01-NB-D 15-BoDE-WFH9-SKH</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook D 15 BoDE-WFH9(Intel Iris Xe Intel i5-1155G7 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>HUAWEI Tag KRI-CE010白</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-YZPJ-Tag-B01</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>HUAWEI Tag KRI-CE010 白</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>HUAWEI Tag 皮革钥匙扣 Kiri ACC-PU case棕</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-YZPJ-YSK-Z</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>HUAWEI Tag 皮革钥匙扣 棕色</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W39(6GB+128GB)海岛蓝</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad-BAH4-W39-6128-HDL</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad BAH4-W39(6GB+128GB) 海岛蓝</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>HUAWEI Sound Joy 智能音箱 EGRT-00海岛蓝</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>HW10-HLK-YP-SOUND-EGRT-HDL</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>HUAWEI Sound Joy 智能音箱 EGRT-00 海岛蓝</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>HUAWEI Sound Joy 智能音箱 EGRT-00活力橙</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>HW10-HLK-YP-SOUND-EGRT-00-HLC</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>HUAWEI Sound Joy 智能音箱 EGRT-00活力橙</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>达伦智能台灯3 DL-3HW无色</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>HW10-HLK-TD-DL-3HW-WS</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>达伦智能台灯3 DL-3HW 无色</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 E-8256-YJH</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E 全网通 4G ABR-AL60(8G+256G) 曜金黑</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-658金属灰</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-SY108-658-JSH</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-658金属灰(Mate50 Pro)</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Paper HMW-AL10(6GB+128GB)雅黑</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>HW02-PAD-MatePad P-HMW-AL10-6128-YH</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>HUAWEI MatePad Paper HMW-AL10(6GB+128GB)雅黑</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50E 4G CET-AL60 256GB 全网通版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 E-256-YJH</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50E 4G CET-AL60 256GB 全网通版  曜金黑</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>华为移动路由Pro TD-LTE无线数据终端 B535-836白</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>HW07-IOT-ZL-B535-B</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>华为移动路由Pro TD-LTE无线数据终端(B535-836)白色</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>华为路由 Q6 子母装 WS7290 V2 PT9030 V2 边缘路由器白</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>HW07-IOT-ZL-Q6BYLYQ-B</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>华为路由Q6子母装(WS7290 V2 PT9030 V2 )边缘路由器 白</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>华为智能磁吸键盘 C-Goethe-Keyboard深海蓝</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-JS-C-Goethe-Keyboard-SHL</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>华为智能磁吸键盘 C-Goethe-Keyboard深海蓝</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16 CREMW-WFG9(AMD Ryzen 5 AMD Radeon Win11 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>HW01-NB-16-CREMW-WFG9-SKH</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16 CREMW-WFG9(AMD Ryzen 5-5600H Radeon Win11 16GB+512GB)深空灰</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16 CREMW-WFG9(AMD Ryzen 5 AMD Radeon Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>HW01-NB-16-CREMW-WFG9-HYY</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 16 CREMW-WFG9(AMD Ryzen 5-5600H Radeon Win11 16GB+512GB)皓月银</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL80(8G+256G) 全网通 4G版晶钻白</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8256-JZB01</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket 全网通 4G版 BAL-AL80(8G+256G)晶钻白(不含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+256G)高通骁龙888曜金黑</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8256-YJH03</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+256G)高通骁龙888曜金黑(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+256G)高通骁龙888可可茶金</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8256-KKCJ02</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+256G)高通骁龙888可可茶金(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+128G)高通骁龙888可可茶金</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8128-KKCJ01</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+128G)高通骁龙888可可茶金(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 13 WRTD-WFE9Q(Intel Iris Xe Intel i7 Win11 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>HW01-NB-13-WFP9WRTD-WFE9Q-SKH</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook 13 WRTD-WFE9Q(Intel Iris Xe Intel i7-1165 16GB+512GB)触屏深空灰</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH GT 3 Pro ODN-B19(浅钛金属表带)无色</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>HW04-CD-WATCH 3 P ODN-B19-QT</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>HUAWEI WATCH GT 3 Pro ODN-B19(浅钛金属表带)无色</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-688石墨黑</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-SY108-688-SMH</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-688石墨黑（Mate50 RS）</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-618金属灰</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-BHL-SY108-618-JSH</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>5G通信壳 SY108-618金属灰(Mate50)</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50E 4G CET-AL60 256GB 全网通版流光紫</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 E-256-LGZ</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50E 4G CET-AL60 256GB 全网通版 流光紫</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)性能版 星际蓝键盘星云灰</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-W76-XYH02</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)星际蓝键盘 星云灰 性能版</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)性能版 星云灰键盘星云灰</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-W76-XYH</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)星云灰键盘 星云灰 性能版</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)性能版 雪域白键盘雪域白</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-W76-XYB</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)雪域白键盘 雪域白 性能版</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)性能版 樱语粉键盘雪域白</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>HW02-PAD-E GO-GK-W76-XYB01</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook E Go GK-W76(Win11 16GB+512GB)樱语粉键盘 雪域白 性能版</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 E-8256-YJH01</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版 曜金黑(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版雪域白</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 E-8256-XYB01</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版 雪域白(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版可可茶金</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 E-8256-KKCJ01</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+256G) 全网通 4G版可可茶金(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+128G) 全网通 4G版曜金黑</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 E-8128-YJH01</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>HUAWEI P50E ABR-AL90(8G+128G) 全网通 4G版 曜金黑(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+256G)高通骁龙888星河蓝</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 P-8256-XHL01</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+256G)高通骁龙888 星河蓝含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL80(8G+256G) 全网通 4G版曜石黑</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8256-YSH03</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL80(8G+256G) 全网通 4G版 曜石黑(不含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50E 4G CET-AL60 256GB 全网通版冰霜银</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>HW03-SJ-MATE50 E-256-BSY</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 50E 4G CET-AL60 256GB 全网通版 冰霜银</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+128G)高通骁龙888曜金黑</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8128-YJH01</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+128G)高通骁龙888 曜金黑(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pro 4G JAD-AL80(8G+128G)高通骁龙888星河蓝</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8128-XHL01</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50 Pro-8128-XHL  HUAWEI P50 Pro 4G JAD-AL80(8G+128G)高通骁龙888 星河蓝(含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X EULD-WFH9(Intel iris Xe Intel i5 Win11 16GB+512GB)触屏冰霜银</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>HW01-NB-X-EULD-WFH9-BSY</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>HUAWEI MateBook X EULD-WFH9(Intel iris Xe Intel I5-1135G7 16GB+512GB )触屏冰霜银</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket BAL-AL80(8G+512G) 全网通 4G版云锦白</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>HW03-SJ-P50Pocket-8512-YJB</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>HUAWEI P50 Pocket 全网通 4G版 BAL-AL80(8G+512G)云锦白(不含充电器、无徕卡)</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>HUAWEI S-TAG BLT-B19 运动传感器 标准款冰霜银</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-YZPJ--CGQBZK-BSY</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>HUAWEI S-TAG BLT-B19 运动传感器 标准款冰霜银</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>HUAWEI S-TAG BLT-B19 运动传感器 精英款冰霜银</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>HW09-YZQT-YZPJ--CGQJYK-BSY</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>HUAWEI S-TAG BLT-B19 运动传感器 精英款冰霜银</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>哈尔斯保温杯HDM-450-16白</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>HW10-HLK-BWB-HDM-450-16-B</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>智能家居哈尔斯保温杯HDM-450-16 白</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>哈尔斯保温杯HDM-450-16黑</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>HW10-HLK-BWB-HDM-450-16-H</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>智能家居哈尔斯保温杯HDM-450-16 黑</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>华为智选 海雀AI全景摄像头 2.5K版 HQ5C白</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>HW10-HLK-SXT-HQ5C-B</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>华为智选 海雀AI全景摄像头 2.5K版 HQ5C白</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>智能声波牙刷2 LBT-203532A星夜黑</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>HW10-HLK-ZNYS-LB2-XYH</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能声波牙刷2 LBT-203532A星夜黑</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>智能声波牙刷2 LBT-203532A元气绿</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>HW10-HLK-ZNYS-LB2-YQL</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能声波牙刷2 LBT-203532A元气绿</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>智能声波牙刷2 LBT-203532A光感白</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>HW10-HLK-ZNYS-LB2-GGB</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>华为智选力博得智能声波牙刷2 LBT-203532A光感白</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)雪域白</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>HW03-SJ-CX50 P-8128-XYB</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>华为畅享 50 Pro CTR-AL00(8GB+128GB)雪域白</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>Hi nova 10 5G ALH-BD00 128GB 全网通版 演示样机曜金黑演示样机</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-Hi NOVA10-128-YJH YJ</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Hi nova 10 5G ALH-BD00 128GB 全网通版曜金黑 演示样机</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>Hi nova 10 Pro 5G MGZ-BD00 128GB 全网通版 演示样机10号演示样机</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>HW03-SJ-ZXSJ-Hi NOVA10 P-128-SH YJ</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Hi nova 10 Pro 5G MGZ-BD00 128GB 全网通版10号 演示样机</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
         <is>
           <t>台</t>
         </is>
